--- a/NCAA Bracket Spreadsheet-copy.xlsx
+++ b/NCAA Bracket Spreadsheet-copy.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="618">
   <si>
     <t>Offensive</t>
   </si>
@@ -138,6 +138,12 @@
     <t>0.316</t>
   </si>
   <si>
+    <t>120.7</t>
+  </si>
+  <si>
+    <t>92.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">12.7 </t>
   </si>
   <si>
@@ -165,9 +171,6 @@
     <t>122.4</t>
   </si>
   <si>
-    <t>92.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.5 </t>
   </si>
   <si>
@@ -264,6 +267,12 @@
     <t>0.425</t>
   </si>
   <si>
+    <t>116.5</t>
+  </si>
+  <si>
+    <t>89.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.8 </t>
   </si>
   <si>
@@ -327,9 +336,6 @@
     <t>116.9</t>
   </si>
   <si>
-    <t>89.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.5 </t>
   </si>
   <si>
@@ -591,6 +597,12 @@
     <t>0.256</t>
   </si>
   <si>
+    <t>119.7</t>
+  </si>
+  <si>
+    <t>96.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">12.3 </t>
   </si>
   <si>
@@ -669,6 +681,12 @@
     <t>0.246</t>
   </si>
   <si>
+    <t>119.8</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.4 </t>
   </si>
   <si>
@@ -930,6 +948,12 @@
     <t>0.445</t>
   </si>
   <si>
+    <t>108.9</t>
+  </si>
+  <si>
+    <t>88.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.1 </t>
   </si>
   <si>
@@ -1083,6 +1107,12 @@
     <t>0.287</t>
   </si>
   <si>
+    <t>109.9</t>
+  </si>
+  <si>
+    <t>94.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.7 </t>
   </si>
   <si>
@@ -1155,6 +1185,9 @@
     <t>0.309</t>
   </si>
   <si>
+    <t>114.5</t>
+  </si>
+  <si>
     <t>Wake Forest</t>
   </si>
   <si>
@@ -1209,9 +1242,6 @@
     <t>111.9</t>
   </si>
   <si>
-    <t>96.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.7 </t>
   </si>
   <si>
@@ -1350,6 +1380,12 @@
     <t>0.273</t>
   </si>
   <si>
+    <t>117.4</t>
+  </si>
+  <si>
+    <t>103.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.6 </t>
   </si>
   <si>
@@ -1566,6 +1602,9 @@
     <t>0.382</t>
   </si>
   <si>
+    <t>97.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.3 </t>
   </si>
   <si>
@@ -1650,9 +1689,6 @@
     <t>108.8</t>
   </si>
   <si>
-    <t>97.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.0 </t>
   </si>
   <si>
@@ -1671,6 +1707,12 @@
     <t>74.4%</t>
   </si>
   <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>105.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.7 </t>
   </si>
   <si>
@@ -1684,6 +1726,12 @@
   </si>
   <si>
     <t>0.294</t>
+  </si>
+  <si>
+    <t>111.1</t>
+  </si>
+  <si>
+    <t>100.9</t>
   </si>
   <si>
     <t xml:space="preserve">6.7 </t>
@@ -2913,17 +2961,17 @@
       <c r="J4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="61" t="n">
-        <v>0</v>
+      <c r="K4" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>39</v>
       </c>
       <c r="M4" s="61" t="n">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="N4" s="61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O4" s="71" t="n"/>
     </row>
@@ -2932,43 +2980,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="61" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M5" s="61" t="n">
         <v>29.9</v>
       </c>
       <c r="N5" s="61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2976,43 +3024,43 @@
         <v>4</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="61" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M6" s="61" t="n">
         <v>27.5</v>
       </c>
       <c r="N6" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3020,43 +3068,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="61" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L7" s="61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M7" s="61" t="n">
         <v>27.7</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3064,43 +3112,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" s="61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="61" t="n">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>82</v>
       </c>
       <c r="M8" s="61" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="N8" s="61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3108,43 +3156,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K9" s="61" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M9" s="61" t="n">
         <v>24.1</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3152,43 +3200,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H10" s="61" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I10" s="61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K10" s="61" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L10" s="61" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="M10" s="61" t="n">
         <v>27.5</v>
       </c>
       <c r="N10" s="61" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3196,43 +3244,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I11" s="61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K11" s="61" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L11" s="61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M11" s="61" t="n">
         <v>25.5</v>
       </c>
       <c r="N11" s="61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O11" s="23" t="n"/>
     </row>
@@ -3241,43 +3289,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L12" s="61" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M12" s="61" t="n">
         <v>25</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3285,43 +3333,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I13" s="61" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L13" s="61" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M13" s="61" t="n">
         <v>24.3</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O13" s="23" t="n"/>
     </row>
@@ -3330,37 +3378,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M14" s="61" t="n">
         <v>23.6</v>
@@ -3374,43 +3422,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I15" s="61" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K15" s="61" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L15" s="61" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M15" s="61" t="n">
         <v>26.1</v>
       </c>
       <c r="N15" s="61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" s="30" spans="1:18">
@@ -3418,43 +3466,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I16" s="61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L16" s="61" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M16" s="61" t="n">
         <v>23.1</v>
       </c>
       <c r="N16" s="61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3462,43 +3510,43 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M17" s="61" t="n">
         <v>23</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3506,43 +3554,43 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H18" s="61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="K18" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="61" t="n">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>192</v>
       </c>
       <c r="M18" s="61" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N18" s="61" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O18" s="23" t="n"/>
     </row>
@@ -3551,43 +3599,43 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" s="61" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I19" s="61" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L19" s="61" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M19" s="61" t="n">
         <v>24.2</v>
       </c>
       <c r="N19" s="61" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3595,43 +3643,43 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K20" s="61" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M20" s="61" t="n">
         <v>23.3</v>
       </c>
       <c r="N20" s="61" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" s="30" spans="1:18">
@@ -3639,43 +3687,43 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D21" s="61" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="K21" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="61" t="n">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>220</v>
       </c>
       <c r="M21" s="61" t="n">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3683,43 +3731,43 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K22" s="61" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L22" s="61" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M22" s="61" t="n">
         <v>22.2</v>
       </c>
       <c r="N22" s="61" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3727,43 +3775,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H23" s="61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K23" s="61" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L23" s="61" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M23" s="61" t="n">
         <v>23</v>
       </c>
       <c r="N23" s="61" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="O23" s="23" t="n"/>
     </row>
@@ -3772,43 +3820,43 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I24" s="61" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K24" s="61" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L24" s="61" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M24" s="61" t="n">
         <v>20.1</v>
       </c>
       <c r="N24" s="61" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3816,43 +3864,43 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I25" s="61" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="K25" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="61" t="n">
-        <v>0</v>
+        <v>260</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>220</v>
       </c>
       <c r="M25" s="61" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="N25" s="61" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3860,43 +3908,43 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I26" s="61" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K26" s="61" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L26" s="61" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M26" s="61" t="n">
         <v>20.7</v>
       </c>
       <c r="N26" s="61" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3904,43 +3952,43 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H27" s="61" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="I27" s="61" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K27" s="61" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L27" s="61" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M27" s="61" t="n">
         <v>22.5</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3948,43 +3996,43 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D28" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="E28" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="H28" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>274</v>
-      </c>
       <c r="J28" s="32" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L28" s="61" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M28" s="61" t="n">
         <v>19.7</v>
       </c>
       <c r="N28" s="61" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3992,37 +4040,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L29" s="61" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M29" s="61" t="n">
         <v>18.8</v>
@@ -4036,43 +4084,43 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I30" s="61" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="K30" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="61" t="n">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="K30" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>309</v>
       </c>
       <c r="M30" s="61" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="N30" s="61" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4080,43 +4128,43 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I31" s="61" t="s">
         <v>36</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="K31" s="61" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L31" s="61" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M31" s="61" t="n">
         <v>16.7</v>
       </c>
       <c r="N31" s="61" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4124,43 +4172,43 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I32" s="61" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K32" s="61" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L32" s="61" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M32" s="61" t="n">
         <v>16.6</v>
       </c>
       <c r="N32" s="61" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4168,43 +4216,43 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K33" s="61" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L33" s="61" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M33" s="61" t="n">
         <v>14.5</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4212,43 +4260,43 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G34" s="61" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="I34" s="61" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K34" s="61" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L34" s="61" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M34" s="61" t="n">
         <v>13.3</v>
       </c>
       <c r="N34" s="61" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4256,43 +4304,43 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E35" s="61" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G35" s="61" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="I35" s="61" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="K35" s="61" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L35" s="61" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M35" s="61" t="n">
         <v>17.4</v>
       </c>
       <c r="N35" s="61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4300,43 +4348,43 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>33</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="I36" s="61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="K36" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="61" t="n">
-        <v>0</v>
+        <v>360</v>
+      </c>
+      <c r="K36" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="L36" s="61" t="s">
+        <v>362</v>
       </c>
       <c r="M36" s="61" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="N36" s="61" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4344,43 +4392,43 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M37" s="61" t="n">
         <v>16.3</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4388,43 +4436,43 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C38" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="H38" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="I38" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="D38" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="E38" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="H38" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="I38" s="61" t="s">
-        <v>262</v>
-      </c>
       <c r="J38" s="32" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K38" s="61" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L38" s="61" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M38" s="61" t="n">
         <v>15.5</v>
       </c>
       <c r="N38" s="61" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4432,43 +4480,43 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39" s="61" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="I39" s="61" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="K39" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="61" t="n">
-        <v>0</v>
+        <v>386</v>
+      </c>
+      <c r="K39" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="L39" s="61" t="s">
+        <v>271</v>
       </c>
       <c r="M39" s="61" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="N39" s="61" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4476,43 +4524,43 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G40" s="61" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I40" s="61" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="K40" s="61" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="L40" s="61" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M40" s="61" t="n">
         <v>16.3</v>
       </c>
       <c r="N40" s="61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4520,43 +4568,43 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D41" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="G41" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="E41" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="G41" s="61" t="s">
-        <v>357</v>
-      </c>
       <c r="H41" s="61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I41" s="61" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K41" s="61" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="L41" s="61" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="M41" s="61" t="n">
         <v>16</v>
       </c>
       <c r="N41" s="61" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4564,43 +4612,43 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C42" s="61" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E42" s="61" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="G42" s="61" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H42" s="61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I42" s="61" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K42" s="61" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="L42" s="61" t="s">
-        <v>395</v>
+        <v>192</v>
       </c>
       <c r="M42" s="61" t="n">
         <v>15.6</v>
       </c>
       <c r="N42" s="61" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4608,43 +4656,43 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F43" s="32" t="s">
         <v>33</v>
       </c>
       <c r="G43" s="61" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H43" s="61" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I43" s="61" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K43" s="61" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="L43" s="61" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="M43" s="61" t="n">
         <v>14.4</v>
       </c>
       <c r="N43" s="61" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4652,43 +4700,43 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E44" s="61" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G44" s="61" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" s="61" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K44" s="61" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="L44" s="61" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M44" s="61" t="n">
         <v>16.5</v>
       </c>
       <c r="N44" s="61" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4696,43 +4744,43 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C45" s="61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I45" s="61" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="J45" s="32" t="s">
         <v>21</v>
       </c>
       <c r="K45" s="61" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L45" s="61" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M45" s="61" t="n">
         <v>16.3</v>
       </c>
       <c r="N45" s="61" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4740,43 +4788,43 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E46" s="61" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G46" s="61" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H46" s="61" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="I46" s="61" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K46" s="61" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="L46" s="61" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="M46" s="61" t="n">
         <v>15.2</v>
       </c>
       <c r="N46" s="61" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4784,43 +4832,43 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H47" s="61" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="I47" s="61" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="K47" s="61" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="L47" s="61" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="M47" s="61" t="n">
         <v>15.8</v>
       </c>
       <c r="N47" s="61" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4828,43 +4876,43 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C48" s="61" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="G48" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="61" t="s">
+        <v>444</v>
+      </c>
+      <c r="I48" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H48" s="61" t="s">
-        <v>434</v>
-      </c>
-      <c r="I48" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" s="32" t="s">
-        <v>63</v>
-      </c>
       <c r="K48" s="61" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="L48" s="61" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="M48" s="61" t="n">
         <v>14.1</v>
       </c>
       <c r="N48" s="61" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4872,43 +4920,43 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C49" s="61" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G49" s="61" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H49" s="61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I49" s="61" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="J49" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="K49" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="61" t="n">
-        <v>0</v>
+        <v>451</v>
+      </c>
+      <c r="K49" s="61" t="s">
+        <v>452</v>
+      </c>
+      <c r="L49" s="61" t="s">
+        <v>453</v>
       </c>
       <c r="M49" s="61" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="N49" s="61" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4916,43 +4964,43 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E50" s="61" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="G50" s="61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H50" s="61" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I50" s="61" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="K50" s="61" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="L50" s="61" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="M50" s="61" t="n">
         <v>14.3</v>
       </c>
       <c r="N50" s="61" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4960,43 +5008,43 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D51" s="61" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="61" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="G51" s="61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H51" s="61" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I51" s="61" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K51" s="61" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="L51" s="61" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="M51" s="61" t="n">
         <v>13.7</v>
       </c>
       <c r="N51" s="61" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -5004,43 +5052,43 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C52" s="61" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E52" s="61" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="G52" s="61" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H52" s="61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I52" s="61" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K52" s="61" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="L52" s="61" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M52" s="61" t="n">
         <v>14.2</v>
       </c>
       <c r="N52" s="61" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5048,43 +5096,43 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C53" s="61" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E53" s="61" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="G53" s="61" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H53" s="61" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I53" s="61" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="J53" s="32" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="K53" s="61" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="L53" s="61" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="M53" s="61" t="n">
         <v>12.2</v>
       </c>
       <c r="N53" s="61" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5092,43 +5140,43 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C54" s="61" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="61" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="E54" s="61" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G54" s="61" t="s">
+        <v>486</v>
+      </c>
+      <c r="H54" s="61" t="s">
+        <v>487</v>
+      </c>
+      <c r="I54" s="61" t="s">
+        <v>488</v>
+      </c>
+      <c r="J54" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="K54" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="H54" s="61" t="s">
-        <v>475</v>
-      </c>
-      <c r="I54" s="61" t="s">
-        <v>476</v>
-      </c>
-      <c r="J54" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="K54" s="61" t="s">
-        <v>462</v>
-      </c>
       <c r="L54" s="61" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="M54" s="61" t="n">
         <v>13.6</v>
       </c>
       <c r="N54" s="61" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5136,43 +5184,43 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="C55" s="61" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D55" s="61" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="61" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="G55" s="61" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="H55" s="61" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I55" s="61" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="K55" s="61" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="L55" s="61" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="M55" s="61" t="n">
         <v>13.4</v>
       </c>
       <c r="N55" s="61" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5180,43 +5228,43 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E56" s="61" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G56" s="61" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="H56" s="61" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I56" s="61" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="J56" s="32" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="K56" s="61" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="L56" s="61" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="M56" s="61" t="n">
         <v>13.5</v>
       </c>
       <c r="N56" s="61" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5224,43 +5272,43 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="G57" s="61" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="H57" s="61" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="J57" s="32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K57" s="61" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="L57" s="61" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="M57" s="61" t="n">
         <v>10.7</v>
       </c>
       <c r="N57" s="61" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5268,43 +5316,43 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="C58" s="61" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="E58" s="61" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="G58" s="61" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H58" s="61" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="I58" s="61" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="J58" s="32" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="K58" s="61" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="L58" s="61" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="M58" s="61" t="n">
         <v>12.7</v>
       </c>
       <c r="N58" s="61" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5312,43 +5360,43 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C59" s="61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E59" s="61" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G59" s="61" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H59" s="61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I59" s="61" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>513</v>
-      </c>
-      <c r="K59" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="61" t="n">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="K59" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="L59" s="61" t="s">
+        <v>526</v>
       </c>
       <c r="M59" s="61" t="n">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="N59" s="61" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5356,43 +5404,43 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C60" s="61" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D60" s="61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E60" s="61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="G60" s="61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H60" s="61" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I60" s="61" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="K60" s="61" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="L60" s="61" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="M60" s="61" t="n">
         <v>13.1</v>
       </c>
       <c r="N60" s="61" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5400,43 +5448,43 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="C61" s="61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D61" s="61" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G61" s="61" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H61" s="61" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I61" s="61" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="K61" s="61" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="L61" s="61" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="M61" s="61" t="n">
         <v>12.4</v>
       </c>
       <c r="N61" s="61" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5444,43 +5492,43 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="C62" s="61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D62" s="61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E62" s="61" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="G62" s="61" t="s">
         <v>34</v>
       </c>
       <c r="H62" s="61" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="I62" s="61" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K62" s="61" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L62" s="61" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="M62" s="61" t="n">
         <v>10.5</v>
       </c>
       <c r="N62" s="61" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5488,43 +5536,43 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="C63" s="61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D63" s="61" t="s">
         <v>35</v>
       </c>
       <c r="E63" s="61" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G63" s="61" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="H63" s="61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I63" s="61" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J63" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K63" s="61" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="L63" s="61" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M63" s="61" t="n">
         <v>11.5</v>
       </c>
       <c r="N63" s="61" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5532,43 +5580,43 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="C64" s="61" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="D64" s="61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E64" s="61" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G64" s="61" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H64" s="61" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I64" s="61" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K64" s="61" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="L64" s="61" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="M64" s="61" t="n">
         <v>11.5</v>
       </c>
       <c r="N64" s="61" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5576,43 +5624,43 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C65" s="61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D65" s="61" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="E65" s="61" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="G65" s="61" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H65" s="61" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I65" s="61" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="K65" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" s="61" t="n">
-        <v>0</v>
+        <v>397</v>
+      </c>
+      <c r="K65" s="61" t="s">
+        <v>561</v>
+      </c>
+      <c r="L65" s="61" t="s">
+        <v>562</v>
       </c>
       <c r="M65" s="61" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="N65" s="61" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5620,43 +5668,43 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="C66" s="61" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D66" s="61" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="E66" s="61" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="G66" s="61" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="H66" s="61" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I66" s="61" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J66" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="K66" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="61" t="n">
-        <v>0</v>
+        <v>567</v>
+      </c>
+      <c r="K66" s="61" t="s">
+        <v>568</v>
+      </c>
+      <c r="L66" s="61" t="s">
+        <v>569</v>
       </c>
       <c r="M66" s="61" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="N66" s="61" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5664,43 +5712,43 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="C67" s="61" t="s">
         <v>34</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E67" s="61" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G67" s="61" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H67" s="61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I67" s="61" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="K67" s="61" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="L67" s="61" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="M67" s="61" t="n">
         <v>12.3</v>
       </c>
       <c r="N67" s="61" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5708,43 +5756,43 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="C68" s="61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D68" s="61" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="E68" s="61" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="G68" s="61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H68" s="61" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="I68" s="61" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="J68" s="32" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K68" s="61" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="L68" s="61" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="M68" s="61" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="N68" s="61" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5752,43 +5800,43 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="C69" s="61" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D69" s="61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E69" s="61" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="G69" s="61" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="H69" s="61" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J69" s="32" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="K69" s="61" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="L69" s="61" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="M69" s="61" t="n">
         <v>14</v>
       </c>
       <c r="N69" s="61" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5796,43 +5844,43 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="C70" s="61" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D70" s="61" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E70" s="61" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="G70" s="61" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H70" s="61" t="s">
         <v>35</v>
       </c>
       <c r="I70" s="61" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="J70" s="32" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="K70" s="61" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L70" s="61" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="M70" s="61" t="n">
         <v>10.4</v>
       </c>
       <c r="N70" s="61" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -5869,12 +5917,12 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="B2" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -5970,7 +6018,7 @@
         <v/>
       </c>
       <c r="AA3" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -6167,7 +6215,7 @@
         <v/>
       </c>
       <c r="AA7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -6244,7 +6292,7 @@
         <v/>
       </c>
       <c r="AA9" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -6440,7 +6488,7 @@
         <v/>
       </c>
       <c r="AA13" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -6476,12 +6524,12 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="B2" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -7592,7 +7640,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="B27" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="D27" s="61" t="n"/>
       <c r="E27" s="61" t="n"/>
@@ -7607,7 +7655,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="B28" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -8718,7 +8766,7 @@
     </row>
     <row r="53" spans="1:26">
       <c r="B53" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="D53" s="61" t="n"/>
       <c r="E53" s="61" t="n"/>
@@ -8733,7 +8781,7 @@
     </row>
     <row r="54" spans="1:26">
       <c r="B54" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>4</v>
@@ -9842,7 +9890,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="B79" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="D79" s="61" t="n"/>
       <c r="E79" s="61" t="n"/>
@@ -9857,7 +9905,7 @@
     </row>
     <row r="80" spans="1:26">
       <c r="B80" s="46" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>4</v>
@@ -10685,7 +10733,7 @@
         <v/>
       </c>
       <c r="Z97" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98" spans="1:26">
@@ -10995,12 +11043,12 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -11837,7 +11885,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="B15" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="D15" s="61" t="n"/>
       <c r="E15" s="61" t="n"/>
@@ -11852,7 +11900,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="B16" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -12682,7 +12730,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="B29" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="D29" s="61" t="n"/>
       <c r="E29" s="61" t="n"/>
@@ -12697,7 +12745,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="B30" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -13536,7 +13584,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="B43" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="D43" s="61" t="n"/>
       <c r="E43" s="61" t="n"/>
@@ -13551,7 +13599,7 @@
     </row>
     <row r="44" spans="1:25">
       <c r="B44" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -14431,12 +14479,12 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -14878,7 +14926,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="B9" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="D9" s="61" t="n"/>
       <c r="E9" s="61" t="n"/>
@@ -14893,7 +14941,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="B10" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -15335,7 +15383,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="B17" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="D17" s="61" t="n"/>
       <c r="E17" s="61" t="n"/>
@@ -15350,7 +15398,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="B18" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -15792,7 +15840,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="B25" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="D25" s="61" t="n"/>
       <c r="E25" s="61" t="n"/>
@@ -15807,7 +15855,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="B26" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -16270,12 +16318,12 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -16515,7 +16563,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="D6" s="61" t="n"/>
       <c r="E6" s="61" t="n"/>
@@ -16530,7 +16578,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="B7" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -16770,7 +16818,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="B11" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="D11" s="61" t="n"/>
       <c r="E11" s="61" t="n"/>
@@ -16785,7 +16833,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="B12" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -17025,7 +17073,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="B16" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="D16" s="61" t="n"/>
       <c r="E16" s="61" t="n"/>
@@ -17040,7 +17088,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="B17" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -17289,12 +17337,12 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -17534,7 +17582,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="D6" s="61" t="n"/>
       <c r="E6" s="61" t="n"/>
@@ -17549,7 +17597,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="B7" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -17817,7 +17865,7 @@
   <sheetData>
     <row r="4" spans="1:25">
       <c r="B4" s="3" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -18057,7 +18105,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="L9" s="20" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="M9">
         <f>IF(Y5&gt;Y6,C5,C6)</f>
@@ -18090,43 +18138,43 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="B2" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="O2">
         <f>SUM(C2+E2+G2+I2+K2+M2)</f>
@@ -18135,43 +18183,43 @@
     </row>
     <row r="3" spans="1:15">
       <c r="B3" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="O3">
         <f>SUM(C3+E3+G3+I3+K3+M3)</f>
@@ -18180,49 +18228,49 @@
     </row>
     <row r="4" spans="1:15">
       <c r="B4" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="C4" s="41">
         <f>C2/C3</f>
         <v/>
       </c>
       <c r="D4" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="E4" s="41">
         <f>E2/E3</f>
         <v/>
       </c>
       <c r="F4" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="G4" s="41">
         <f>G2/G3</f>
         <v/>
       </c>
       <c r="H4" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="I4" s="41">
         <f>I2/I3</f>
         <v/>
       </c>
       <c r="J4" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="K4" s="41">
         <f>K2/K3</f>
         <v/>
       </c>
       <c r="L4" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="M4" s="41">
         <f>M2/M3</f>
         <v/>
       </c>
       <c r="N4" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="O4" s="81">
         <f>O2/O3</f>

--- a/NCAA Bracket Spreadsheet-copy.xlsx
+++ b/NCAA Bracket Spreadsheet-copy.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>Offensive</t>
   </si>
@@ -78,1735 +78,205 @@
     <t>Gonzaga</t>
   </si>
   <si>
-    <t>56.7%</t>
-  </si>
-  <si>
-    <t>14.2%</t>
-  </si>
-  <si>
-    <t>28.0%</t>
-  </si>
-  <si>
-    <t>0.390</t>
-  </si>
-  <si>
-    <t>41.1%</t>
-  </si>
-  <si>
-    <t>14.9%</t>
-  </si>
-  <si>
-    <t>75.9%</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>118.4</t>
-  </si>
-  <si>
-    <t>86.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0 </t>
-  </si>
-  <si>
     <t>N Carolina</t>
-  </si>
-  <si>
-    <t>51.7%</t>
-  </si>
-  <si>
-    <t>13.4%</t>
-  </si>
-  <si>
-    <t>40.2%</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>48.1%</t>
-  </si>
-  <si>
-    <t>16.4%</t>
-  </si>
-  <si>
-    <t>76.7%</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>120.7</t>
-  </si>
-  <si>
-    <t>92.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7 </t>
   </si>
   <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>57.5%</t>
-  </si>
-  <si>
-    <t>29.5%</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>17.7%</t>
-  </si>
-  <si>
-    <t>75.3%</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>122.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5 </t>
-  </si>
-  <si>
     <t>Kansas</t>
-  </si>
-  <si>
-    <t>56.1%</t>
-  </si>
-  <si>
-    <t>15.1%</t>
-  </si>
-  <si>
-    <t>33.2%</t>
-  </si>
-  <si>
-    <t>0.360</t>
-  </si>
-  <si>
-    <t>16.1%</t>
-  </si>
-  <si>
-    <t>72.4%</t>
-  </si>
-  <si>
-    <t>0.300</t>
-  </si>
-  <si>
-    <t>122.0</t>
-  </si>
-  <si>
-    <t>94.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5 </t>
   </si>
   <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>52.9%</t>
-  </si>
-  <si>
-    <t>31.7%</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>47.5%</t>
-  </si>
-  <si>
-    <t>16.9%</t>
-  </si>
-  <si>
-    <t>75.4%</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>119.1</t>
-  </si>
-  <si>
-    <t>91.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3 </t>
-  </si>
-  <si>
     <t>W Virginia</t>
-  </si>
-  <si>
-    <t>51.3%</t>
-  </si>
-  <si>
-    <t>14.1%</t>
-  </si>
-  <si>
-    <t>37.1%</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>48.8%</t>
-  </si>
-  <si>
-    <t>24.0%</t>
-  </si>
-  <si>
-    <t>70.8%</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>116.5</t>
-  </si>
-  <si>
-    <t>89.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8 </t>
   </si>
   <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>54.8%</t>
-  </si>
-  <si>
-    <t>30.3%</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>15.0%</t>
-  </si>
-  <si>
-    <t>72.6%</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>96.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4 </t>
-  </si>
-  <si>
     <t>Florida</t>
-  </si>
-  <si>
-    <t>51.6%</t>
-  </si>
-  <si>
-    <t>14.6%</t>
-  </si>
-  <si>
-    <t>30.1%</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>45.8%</t>
-  </si>
-  <si>
-    <t>18.2%</t>
-  </si>
-  <si>
-    <t>72.9%</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>116.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5 </t>
   </si>
   <si>
     <t>Louisville</t>
   </si>
   <si>
-    <t>51.4%</t>
-  </si>
-  <si>
-    <t>13.3%</t>
-  </si>
-  <si>
-    <t>35.9%</t>
-  </si>
-  <si>
-    <t>0.340</t>
-  </si>
-  <si>
-    <t>45.7%</t>
-  </si>
-  <si>
-    <t>17.1%</t>
-  </si>
-  <si>
-    <t>74.3%</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>117.2</t>
-  </si>
-  <si>
-    <t>91.7</t>
-  </si>
-  <si>
     <t>Oregon</t>
-  </si>
-  <si>
-    <t>55.5%</t>
-  </si>
-  <si>
-    <t>14.8%</t>
-  </si>
-  <si>
-    <t>30.6%</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>46.4%</t>
-  </si>
-  <si>
-    <t>16.8%</t>
-  </si>
-  <si>
-    <t>73.6%</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>118.2</t>
-  </si>
-  <si>
-    <t>93.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4 </t>
   </si>
   <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>52.4%</t>
-  </si>
-  <si>
-    <t>13.6%</t>
-  </si>
-  <si>
-    <t>25.9%</t>
-  </si>
-  <si>
-    <t>0.260</t>
-  </si>
-  <si>
-    <t>46.1%</t>
-  </si>
-  <si>
-    <t>18.4%</t>
-  </si>
-  <si>
-    <t>78.0%</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>112.2</t>
-  </si>
-  <si>
-    <t>87.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0 </t>
-  </si>
-  <si>
     <t>UCLA</t>
-  </si>
-  <si>
-    <t>59.8%</t>
-  </si>
-  <si>
-    <t>27.7%</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>48.7%</t>
-  </si>
-  <si>
-    <t>13.8%</t>
-  </si>
-  <si>
-    <t>73.8%</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>124.0</t>
-  </si>
-  <si>
-    <t>100.4</t>
   </si>
   <si>
     <t>Wichita St</t>
   </si>
   <si>
-    <t>54.1%</t>
-  </si>
-  <si>
-    <t>32.1%</t>
-  </si>
-  <si>
-    <t>0.403</t>
-  </si>
-  <si>
-    <t>43.8%</t>
-  </si>
-  <si>
-    <t>17.2%</t>
-  </si>
-  <si>
-    <t>80.1%</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>118.7</t>
-  </si>
-  <si>
-    <t>92.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0 </t>
-  </si>
-  <si>
     <t>Purdue</t>
-  </si>
-  <si>
-    <t>55.7%</t>
-  </si>
-  <si>
-    <t>29.1%</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>47.7%</t>
-  </si>
-  <si>
-    <t>14.7%</t>
-  </si>
-  <si>
-    <t>77.6%</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>93.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0 </t>
   </si>
   <si>
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>52.1%</t>
-  </si>
-  <si>
-    <t>14.3%</t>
-  </si>
-  <si>
-    <t>33.9%</t>
-  </si>
-  <si>
-    <t>0.329</t>
-  </si>
-  <si>
-    <t>47.6%</t>
-  </si>
-  <si>
-    <t>17.3%</t>
-  </si>
-  <si>
-    <t>76.9%</t>
-  </si>
-  <si>
-    <t>0.281</t>
-  </si>
-  <si>
-    <t>115.1</t>
-  </si>
-  <si>
-    <t>92.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7 </t>
-  </si>
-  <si>
     <t>Iowa State</t>
-  </si>
-  <si>
-    <t>55.0%</t>
-  </si>
-  <si>
-    <t>12.5%</t>
-  </si>
-  <si>
-    <t>23.6%</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>49.0%</t>
-  </si>
-  <si>
-    <t>69.9%</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>119.7</t>
-  </si>
-  <si>
-    <t>96.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3 </t>
   </si>
   <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>52.5%</t>
-  </si>
-  <si>
-    <t>38.2%</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>72.8%</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>117.1</t>
-  </si>
-  <si>
-    <t>92.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4 </t>
-  </si>
-  <si>
     <t>Arizona</t>
-  </si>
-  <si>
-    <t>53.7%</t>
-  </si>
-  <si>
-    <t>14.5%</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>15.2%</t>
-  </si>
-  <si>
-    <t>76.3%</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
-    <t>95.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8 </t>
   </si>
   <si>
     <t>S Methodist</t>
   </si>
   <si>
-    <t>54.7%</t>
-  </si>
-  <si>
-    <t>36.6%</t>
-  </si>
-  <si>
-    <t>46.0%</t>
-  </si>
-  <si>
-    <t>16.0%</t>
-  </si>
-  <si>
-    <t>75.6%</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>119.8</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4 </t>
-  </si>
-  <si>
     <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>52.0%</t>
-  </si>
-  <si>
-    <t>12.9%</t>
-  </si>
-  <si>
-    <t>34.4%</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>45.2%</t>
-  </si>
-  <si>
-    <t>17.5%</t>
-  </si>
-  <si>
-    <t>74.0%</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>92.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2 </t>
   </si>
   <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>57.0%</t>
-  </si>
-  <si>
-    <t>12.8%</t>
-  </si>
-  <si>
-    <t>22.4%</t>
-  </si>
-  <si>
-    <t>51.9%</t>
-  </si>
-  <si>
-    <t>71.7%</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>122.3</t>
-  </si>
-  <si>
-    <t>99.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6 </t>
-  </si>
-  <si>
     <t>Florida St</t>
-  </si>
-  <si>
-    <t>14.0%</t>
-  </si>
-  <si>
-    <t>33.3%</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>47.9%</t>
-  </si>
-  <si>
-    <t>17.0%</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>115.5</t>
-  </si>
-  <si>
-    <t>95.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8 </t>
   </si>
   <si>
     <t>St Marys</t>
   </si>
   <si>
-    <t>57.8%</t>
-  </si>
-  <si>
-    <t>31.3%</t>
-  </si>
-  <si>
-    <t>0.278</t>
-  </si>
-  <si>
-    <t>45.3%</t>
-  </si>
-  <si>
-    <t>80.0%</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6 </t>
-  </si>
-  <si>
     <t>Butler</t>
-  </si>
-  <si>
-    <t>54.6%</t>
-  </si>
-  <si>
-    <t>25.5%</t>
-  </si>
-  <si>
-    <t>0.371</t>
-  </si>
-  <si>
-    <t>50.8%</t>
-  </si>
-  <si>
-    <t>17.4%</t>
-  </si>
-  <si>
-    <t>75.2%</t>
-  </si>
-  <si>
-    <t>0.370</t>
-  </si>
-  <si>
-    <t>117.7</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2 </t>
   </si>
   <si>
     <t>Oklahoma St</t>
   </si>
   <si>
-    <t>54.0%</t>
-  </si>
-  <si>
-    <t>15.4%</t>
-  </si>
-  <si>
-    <t>35.8%</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>53.2%</t>
-  </si>
-  <si>
-    <t>17.6%</t>
-  </si>
-  <si>
-    <t>70.9%</t>
-  </si>
-  <si>
-    <t>0.454</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>103.5</t>
-  </si>
-  <si>
     <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>53.6%</t>
-  </si>
-  <si>
-    <t>12.3%</t>
-  </si>
-  <si>
-    <t>24.4%</t>
-  </si>
-  <si>
-    <t>49.1%</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>118.1</t>
-  </si>
-  <si>
-    <t>98.4</t>
   </si>
   <si>
     <t>Creighton</t>
   </si>
   <si>
-    <t>57.6%</t>
-  </si>
-  <si>
-    <t>21.8%</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>49.9%</t>
-  </si>
-  <si>
-    <t>72.5%</t>
-  </si>
-  <si>
-    <t>0.292</t>
-  </si>
-  <si>
-    <t>115.3</t>
-  </si>
-  <si>
-    <t>96.5</t>
-  </si>
-  <si>
     <t>S Carolina</t>
-  </si>
-  <si>
-    <t>47.3%</t>
-  </si>
-  <si>
-    <t>15.6%</t>
-  </si>
-  <si>
-    <t>45.5%</t>
-  </si>
-  <si>
-    <t>21.1%</t>
-  </si>
-  <si>
-    <t>70.5%</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>108.9</t>
-  </si>
-  <si>
-    <t>88.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1 </t>
   </si>
   <si>
     <t>Xavier</t>
   </si>
   <si>
-    <t>15.7%</t>
-  </si>
-  <si>
-    <t>32.6%</t>
-  </si>
-  <si>
-    <t>0.410</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>115.8</t>
-  </si>
-  <si>
-    <t>99.1</t>
-  </si>
-  <si>
     <t>Marquette</t>
-  </si>
-  <si>
-    <t>15.5%</t>
-  </si>
-  <si>
-    <t>24.7%</t>
-  </si>
-  <si>
-    <t>0.310</t>
-  </si>
-  <si>
-    <t>52.2%</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>120.8</t>
-  </si>
-  <si>
-    <t>104.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9 </t>
   </si>
   <si>
     <t>Indiana</t>
   </si>
   <si>
-    <t>55.2%</t>
-  </si>
-  <si>
-    <t>18.3%</t>
-  </si>
-  <si>
-    <t>34.7%</t>
-  </si>
-  <si>
-    <t>13.7%</t>
-  </si>
-  <si>
-    <t>74.5%</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>116.1</t>
-  </si>
-  <si>
-    <t>101.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2 </t>
-  </si>
-  <si>
     <t>Syracuse</t>
-  </si>
-  <si>
-    <t>53.5%</t>
-  </si>
-  <si>
-    <t>30.0%</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>50.4%</t>
-  </si>
-  <si>
-    <t>16.5%</t>
-  </si>
-  <si>
-    <t>66.8%</t>
-  </si>
-  <si>
-    <t>115.6</t>
-  </si>
-  <si>
-    <t>102.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2 </t>
   </si>
   <si>
     <t>Kansas St</t>
   </si>
   <si>
-    <t>52.7%</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>49.6%</t>
-  </si>
-  <si>
-    <t>19.1%</t>
-  </si>
-  <si>
-    <t>69.5%</t>
-  </si>
-  <si>
-    <t>113.0</t>
-  </si>
-  <si>
-    <t>95.6</t>
-  </si>
-  <si>
     <t>Miami (FL)</t>
-  </si>
-  <si>
-    <t>51.0%</t>
-  </si>
-  <si>
-    <t>16.6%</t>
-  </si>
-  <si>
-    <t>30.8%</t>
-  </si>
-  <si>
-    <t>15.9%</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>109.9</t>
-  </si>
-  <si>
-    <t>94.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7 </t>
   </si>
   <si>
     <t>Rhode Island</t>
   </si>
   <si>
-    <t>50.7%</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>45.1%</t>
-  </si>
-  <si>
-    <t>73.7%</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>111.5</t>
-  </si>
-  <si>
-    <t>95.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8 </t>
-  </si>
-  <si>
     <t>Michigan St</t>
-  </si>
-  <si>
-    <t>17.9%</t>
-  </si>
-  <si>
-    <t>28.5%</t>
-  </si>
-  <si>
-    <t>46.7%</t>
-  </si>
-  <si>
-    <t>13.9%</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>111.4</t>
-  </si>
-  <si>
-    <t>95.9</t>
   </si>
   <si>
     <t>TX Christian</t>
   </si>
   <si>
-    <t>32.2%</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>16.3%</t>
-  </si>
-  <si>
-    <t>73.1%</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>114.5</t>
-  </si>
-  <si>
     <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>28.8%</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>74.8%</t>
-  </si>
-  <si>
-    <t>0.380</t>
-  </si>
-  <si>
-    <t>120.9</t>
-  </si>
-  <si>
-    <t>104.6</t>
   </si>
   <si>
     <t>Minnesota</t>
   </si>
   <si>
-    <t>27.0%</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>109.7</t>
-  </si>
-  <si>
-    <t>93.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8 </t>
-  </si>
-  <si>
     <t>Dayton</t>
-  </si>
-  <si>
-    <t>22.9%</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>75.7%</t>
-  </si>
-  <si>
-    <t>111.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7 </t>
   </si>
   <si>
     <t>Clemson</t>
   </si>
   <si>
-    <t>51.1%</t>
-  </si>
-  <si>
-    <t>29.9%</t>
-  </si>
-  <si>
-    <t>70.7%</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>114.9</t>
-  </si>
-  <si>
-    <t>100.5</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>112.4</t>
   </si>
   <si>
     <t>Arkansas</t>
   </si>
   <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>47.8%</t>
-  </si>
-  <si>
-    <t>68.1%</t>
-  </si>
-  <si>
-    <t>99.8</t>
-  </si>
-  <si>
     <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>53.0%</t>
-  </si>
-  <si>
-    <t>28.9%</t>
-  </si>
-  <si>
-    <t>18.1%</t>
-  </si>
-  <si>
-    <t>75.5%</t>
-  </si>
-  <si>
-    <t>112.6</t>
-  </si>
-  <si>
-    <t>97.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3 </t>
   </si>
   <si>
     <t>Northwestern</t>
   </si>
   <si>
-    <t>49.7%</t>
-  </si>
-  <si>
-    <t>27.5%</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>15.3%</t>
-  </si>
-  <si>
-    <t>71.3%</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>111.3</t>
-  </si>
-  <si>
-    <t>95.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1 </t>
-  </si>
-  <si>
     <t>VCU</t>
-  </si>
-  <si>
-    <t>29.4%</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>18.5%</t>
-  </si>
-  <si>
-    <t>110.1</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6 </t>
   </si>
   <si>
     <t>VA Tech</t>
   </si>
   <si>
-    <t>56.9%</t>
-  </si>
-  <si>
-    <t>71.0%</t>
-  </si>
-  <si>
-    <t>0.273</t>
-  </si>
-  <si>
-    <t>117.4</t>
-  </si>
-  <si>
-    <t>103.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6 </t>
-  </si>
-  <si>
     <t>Maryland</t>
-  </si>
-  <si>
-    <t>0.385</t>
-  </si>
-  <si>
-    <t>69.8%</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>113.1</t>
-  </si>
-  <si>
-    <t>98.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1 </t>
   </si>
   <si>
     <t>Seton Hall</t>
   </si>
   <si>
-    <t>34.3%</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>77.0%</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>109.5</t>
-  </si>
-  <si>
-    <t>95.8</t>
-  </si>
-  <si>
     <t>Utah</t>
-  </si>
-  <si>
-    <t>56.3%</t>
-  </si>
-  <si>
-    <t>29.0%</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>77.1%</t>
-  </si>
-  <si>
-    <t>113.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9 </t>
   </si>
   <si>
     <t>California</t>
   </si>
   <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>79.5%</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>104.9</t>
-  </si>
-  <si>
-    <t>92.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3 </t>
-  </si>
-  <si>
     <t>Houston</t>
-  </si>
-  <si>
-    <t>12.7%</t>
-  </si>
-  <si>
-    <t>30.9%</t>
-  </si>
-  <si>
-    <t>47.2%</t>
-  </si>
-  <si>
-    <t>17.8%</t>
-  </si>
-  <si>
-    <t>71.6%</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>99.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 </t>
   </si>
   <si>
     <t>Nevada</t>
   </si>
   <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>48.3%</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>114.7</t>
-  </si>
-  <si>
-    <t>101.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7 </t>
-  </si>
-  <si>
     <t>USC</t>
-  </si>
-  <si>
-    <t>29.6%</t>
-  </si>
-  <si>
-    <t>50.1%</t>
-  </si>
-  <si>
-    <t>70.3%</t>
-  </si>
-  <si>
-    <t>0.240</t>
-  </si>
-  <si>
-    <t>114.2</t>
-  </si>
-  <si>
-    <t>100.7</t>
   </si>
   <si>
     <t>Georgetown</t>
   </si>
   <si>
-    <t>26.8%</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>47.4%</t>
-  </si>
-  <si>
-    <t>108.4</t>
-  </si>
-  <si>
-    <t>97.7</t>
-  </si>
-  <si>
     <t>Princeton</t>
-  </si>
-  <si>
-    <t>13.5%</t>
-  </si>
-  <si>
-    <t>22.5%</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>18.0%</t>
-  </si>
-  <si>
-    <t>77.5%</t>
-  </si>
-  <si>
-    <t>0.320</t>
-  </si>
-  <si>
-    <t>109.1</t>
-  </si>
-  <si>
-    <t>96.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8 </t>
   </si>
   <si>
     <t>Middle Tenn</t>
   </si>
   <si>
-    <t>28.4%</t>
-  </si>
-  <si>
-    <t>78.2%</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>97.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 </t>
-  </si>
-  <si>
     <t>Alabama</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.399</t>
-  </si>
-  <si>
-    <t>105.3</t>
-  </si>
-  <si>
-    <t>92.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5 </t>
   </si>
   <si>
     <t>Providence</t>
   </si>
   <si>
-    <t>16.2%</t>
-  </si>
-  <si>
-    <t>25.0%</t>
-  </si>
-  <si>
-    <t>73.4%</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>108.5</t>
-  </si>
-  <si>
-    <t>96.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6 </t>
-  </si>
-  <si>
     <t>Texas</t>
-  </si>
-  <si>
-    <t>26.4%</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>15.8%</t>
   </si>
   <si>
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>28.6%</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>107.4</t>
-  </si>
-  <si>
     <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>51.2%</t>
-  </si>
-  <si>
-    <t>36.1%</t>
-  </si>
-  <si>
-    <t>71.9%</t>
-  </si>
-  <si>
-    <t>108.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0 </t>
   </si>
   <si>
     <t>NC-Wilmgton</t>
   </si>
   <si>
-    <t>11.9%</t>
-  </si>
-  <si>
-    <t>31.0%</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>74.4%</t>
-  </si>
-  <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>105.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7 </t>
-  </si>
-  <si>
     <t>Ohio State</t>
-  </si>
-  <si>
-    <t>16.7%</t>
-  </si>
-  <si>
-    <t>48.9%</t>
-  </si>
-  <si>
-    <t>0.294</t>
-  </si>
-  <si>
-    <t>111.1</t>
-  </si>
-  <si>
-    <t>100.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7 </t>
   </si>
   <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>26.9%</t>
-  </si>
-  <si>
-    <t>108.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9 </t>
-  </si>
-  <si>
     <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>26.7%</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>12.4%</t>
-  </si>
-  <si>
-    <t>72.0%</t>
-  </si>
-  <si>
-    <t>103.7</t>
   </si>
   <si>
     <t>Illinois St</t>
   </si>
   <si>
-    <t>0.299</t>
-  </si>
-  <si>
-    <t>44.0%</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>107.6</t>
-  </si>
-  <si>
-    <t>93.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 </t>
-  </si>
-  <si>
     <t>Iowa</t>
-  </si>
-  <si>
-    <t>30.4%</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>69.3%</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>102.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6 </t>
   </si>
   <si>
     <t>First Four</t>
@@ -2892,41 +1362,41 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>27</v>
+      <c r="C3" s="61" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="D3" s="61" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E3" s="61" t="n">
+        <v>28</v>
+      </c>
+      <c r="F3" s="32" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G3" s="61" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="H3" s="61" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="I3" s="61" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="J3" s="32" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="K3" s="61" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="L3" s="61" t="n">
+        <v>86.3</v>
       </c>
       <c r="M3" s="61" t="n">
         <v>32.1</v>
       </c>
-      <c r="N3" s="61" t="s">
-        <v>28</v>
+      <c r="N3" s="61" t="n">
+        <v>9</v>
       </c>
       <c r="O3" s="71" t="n"/>
     </row>
@@ -2935,43 +1405,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="61" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D4" s="61" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E4" s="61" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="F4" s="32" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="G4" s="61" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="H4" s="61" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="I4" s="61" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="J4" s="32" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="K4" s="61" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="L4" s="61" t="n">
+        <v>92.5</v>
       </c>
       <c r="M4" s="61" t="n">
         <v>28.2</v>
       </c>
-      <c r="N4" s="61" t="s">
-        <v>40</v>
+      <c r="N4" s="61" t="n">
+        <v>12.7</v>
       </c>
       <c r="O4" s="71" t="n"/>
     </row>
@@ -2980,43 +1450,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="61" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D5" s="61" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E5" s="61" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F5" s="32" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="61" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="H5" s="61" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I5" s="61" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="J5" s="32" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="K5" s="61" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="L5" s="61" t="n">
+        <v>92.5</v>
       </c>
       <c r="M5" s="61" t="n">
         <v>29.9</v>
       </c>
-      <c r="N5" s="61" t="s">
-        <v>49</v>
+      <c r="N5" s="61" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3024,43 +1494,43 @@
         <v>4</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="61" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D6" s="61" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E6" s="61" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F6" s="32" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G6" s="61" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="H6" s="61" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I6" s="61" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="J6" s="32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="61" t="n">
+        <v>122</v>
+      </c>
+      <c r="L6" s="61" t="n">
+        <v>94.5</v>
       </c>
       <c r="M6" s="61" t="n">
         <v>27.5</v>
       </c>
-      <c r="N6" s="61" t="s">
-        <v>60</v>
+      <c r="N6" s="61" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3068,43 +1538,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>70</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="61" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D7" s="61" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E7" s="61" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F7" s="32" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="G7" s="61" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="H7" s="61" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="I7" s="61" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="J7" s="32" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="K7" s="61" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="L7" s="61" t="n">
+        <v>91.40000000000001</v>
       </c>
       <c r="M7" s="61" t="n">
         <v>27.7</v>
       </c>
-      <c r="N7" s="61" t="s">
-        <v>71</v>
+      <c r="N7" s="61" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3112,43 +1582,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="61" t="s">
-        <v>82</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="61" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="D8" s="61" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E8" s="61" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="F8" s="32" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="G8" s="61" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="H8" s="61" t="n">
+        <v>24</v>
+      </c>
+      <c r="I8" s="61" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="J8" s="32" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="K8" s="61" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="L8" s="61" t="n">
+        <v>89.40000000000001</v>
       </c>
       <c r="M8" s="61" t="n">
         <v>27.1</v>
       </c>
-      <c r="N8" s="61" t="s">
-        <v>83</v>
+      <c r="N8" s="61" t="n">
+        <v>11.8</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3156,43 +1626,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>92</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="61" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D9" s="61" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E9" s="61" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F9" s="32" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="G9" s="61" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="H9" s="61" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" s="61" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J9" s="32" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="K9" s="61" t="n">
+        <v>121</v>
+      </c>
+      <c r="L9" s="61" t="n">
+        <v>96.90000000000001</v>
       </c>
       <c r="M9" s="61" t="n">
         <v>24.1</v>
       </c>
-      <c r="N9" s="61" t="s">
-        <v>93</v>
+      <c r="N9" s="61" t="n">
+        <v>12.4</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3200,43 +1670,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>82</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="61" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="D10" s="61" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E10" s="61" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F10" s="32" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="G10" s="61" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="H10" s="61" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I10" s="61" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="J10" s="32" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="K10" s="61" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="L10" s="61" t="n">
+        <v>89.40000000000001</v>
       </c>
       <c r="M10" s="61" t="n">
         <v>27.5</v>
       </c>
-      <c r="N10" s="61" t="s">
-        <v>104</v>
+      <c r="N10" s="61" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3244,43 +1714,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" s="61" t="s">
-        <v>115</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="61" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="D11" s="61" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E11" s="61" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F11" s="32" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G11" s="61" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H11" s="61" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I11" s="61" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J11" s="32" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="K11" s="61" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="L11" s="61" t="n">
+        <v>91.7</v>
       </c>
       <c r="M11" s="61" t="n">
         <v>25.5</v>
       </c>
-      <c r="N11" s="61" t="s">
-        <v>83</v>
+      <c r="N11" s="61" t="n">
+        <v>11.8</v>
       </c>
       <c r="O11" s="23" t="n"/>
     </row>
@@ -3289,43 +1759,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" s="61" t="s">
-        <v>126</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="61" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D12" s="61" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E12" s="61" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F12" s="32" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="G12" s="61" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="H12" s="61" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I12" s="61" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="J12" s="32" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="K12" s="61" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="L12" s="61" t="n">
+        <v>93.2</v>
       </c>
       <c r="M12" s="61" t="n">
         <v>25</v>
       </c>
-      <c r="N12" s="61" t="s">
-        <v>127</v>
+      <c r="N12" s="61" t="n">
+        <v>9.4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3333,43 +1803,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>138</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="61" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="D13" s="61" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E13" s="61" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F13" s="32" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G13" s="61" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="H13" s="61" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I13" s="61" t="n">
+        <v>78</v>
+      </c>
+      <c r="J13" s="32" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="K13" s="61" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="L13" s="61" t="n">
+        <v>87.90000000000001</v>
       </c>
       <c r="M13" s="61" t="n">
         <v>24.3</v>
       </c>
-      <c r="N13" s="61" t="s">
-        <v>139</v>
+      <c r="N13" s="61" t="n">
+        <v>12</v>
       </c>
       <c r="O13" s="23" t="n"/>
     </row>
@@ -3378,43 +1848,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="61" t="s">
-        <v>149</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="61" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="D14" s="61" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E14" s="61" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F14" s="32" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="G14" s="61" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="H14" s="61" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I14" s="61" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J14" s="32" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="K14" s="61" t="n">
+        <v>124</v>
+      </c>
+      <c r="L14" s="61" t="n">
+        <v>100.4</v>
       </c>
       <c r="M14" s="61" t="n">
         <v>23.6</v>
       </c>
-      <c r="N14" s="61" t="s">
-        <v>28</v>
+      <c r="N14" s="61" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15" s="30" spans="1:18">
@@ -3422,43 +1892,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="L15" s="61" t="s">
-        <v>159</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="61" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="D15" s="61" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E15" s="61" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F15" s="32" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="G15" s="61" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="H15" s="61" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="I15" s="61" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="J15" s="32" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K15" s="61" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="L15" s="61" t="n">
+        <v>92.59999999999999</v>
       </c>
       <c r="M15" s="61" t="n">
         <v>26.1</v>
       </c>
-      <c r="N15" s="61" t="s">
-        <v>160</v>
+      <c r="N15" s="61" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16" s="30" spans="1:18">
@@ -3466,43 +1936,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="61" t="s">
-        <v>169</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="61" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D16" s="61" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E16" s="61" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F16" s="32" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="G16" s="61" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="H16" s="61" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I16" s="61" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="J16" s="32" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="K16" s="61" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="L16" s="61" t="n">
+        <v>93.8</v>
       </c>
       <c r="M16" s="61" t="n">
         <v>23.1</v>
       </c>
-      <c r="N16" s="61" t="s">
-        <v>170</v>
+      <c r="N16" s="61" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3510,43 +1980,43 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="61" t="s">
-        <v>181</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="61" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="D17" s="61" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E17" s="61" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="F17" s="32" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="G17" s="61" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="H17" s="61" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="I17" s="61" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="J17" s="32" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="K17" s="61" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="L17" s="61" t="n">
+        <v>92.09999999999999</v>
       </c>
       <c r="M17" s="61" t="n">
         <v>23</v>
       </c>
-      <c r="N17" s="61" t="s">
-        <v>182</v>
+      <c r="N17" s="61" t="n">
+        <v>10.7</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3554,43 +2024,43 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="L18" s="61" t="s">
-        <v>192</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="61" t="n">
+        <v>55</v>
+      </c>
+      <c r="D18" s="61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E18" s="61" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F18" s="32" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="G18" s="61" t="n">
+        <v>49</v>
+      </c>
+      <c r="H18" s="61" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I18" s="61" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="J18" s="32" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="K18" s="61" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="L18" s="61" t="n">
+        <v>96.3</v>
       </c>
       <c r="M18" s="61" t="n">
         <v>23.4</v>
       </c>
-      <c r="N18" s="61" t="s">
-        <v>193</v>
+      <c r="N18" s="61" t="n">
+        <v>12.3</v>
       </c>
       <c r="O18" s="23" t="n"/>
     </row>
@@ -3599,43 +2069,43 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="K19" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="61" t="s">
-        <v>201</v>
+        <v>33</v>
+      </c>
+      <c r="C19" s="61" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D19" s="61" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E19" s="61" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="F19" s="32" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="G19" s="61" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="H19" s="61" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="I19" s="61" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="J19" s="32" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="K19" s="61" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="L19" s="61" t="n">
+        <v>92.90000000000001</v>
       </c>
       <c r="M19" s="61" t="n">
         <v>24.2</v>
       </c>
-      <c r="N19" s="61" t="s">
-        <v>202</v>
+      <c r="N19" s="61" t="n">
+        <v>11.4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3643,43 +2113,43 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="I20" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="K20" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="61" t="s">
-        <v>210</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="61" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="D20" s="61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E20" s="61" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="F20" s="32" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G20" s="61" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="H20" s="61" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="I20" s="61" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="J20" s="32" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="K20" s="61" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="L20" s="61" t="n">
+        <v>95.09999999999999</v>
       </c>
       <c r="M20" s="61" t="n">
         <v>23.3</v>
       </c>
-      <c r="N20" s="61" t="s">
-        <v>211</v>
+      <c r="N20" s="61" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="21" s="30" spans="1:18">
@@ -3687,43 +2157,43 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="K21" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="L21" s="61" t="s">
-        <v>220</v>
+        <v>35</v>
+      </c>
+      <c r="C21" s="61" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D21" s="61" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E21" s="61" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F21" s="32" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G21" s="61" t="n">
+        <v>46</v>
+      </c>
+      <c r="H21" s="61" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" s="61" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="J21" s="32" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="K21" s="61" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="L21" s="61" t="n">
+        <v>95</v>
       </c>
       <c r="M21" s="61" t="n">
         <v>24.8</v>
       </c>
-      <c r="N21" s="61" t="s">
-        <v>221</v>
+      <c r="N21" s="61" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3731,43 +2201,43 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="I22" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="L22" s="61" t="s">
-        <v>232</v>
+        <v>36</v>
+      </c>
+      <c r="C22" s="61" t="n">
+        <v>52</v>
+      </c>
+      <c r="D22" s="61" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E22" s="61" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="F22" s="32" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G22" s="61" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="H22" s="61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I22" s="61" t="n">
+        <v>74</v>
+      </c>
+      <c r="J22" s="32" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="K22" s="61" t="n">
+        <v>115</v>
+      </c>
+      <c r="L22" s="61" t="n">
+        <v>92.8</v>
       </c>
       <c r="M22" s="61" t="n">
         <v>22.2</v>
       </c>
-      <c r="N22" s="61" t="s">
-        <v>233</v>
+      <c r="N22" s="61" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3775,43 +2245,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="H23" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K23" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="L23" s="61" t="s">
-        <v>242</v>
+        <v>37</v>
+      </c>
+      <c r="C23" s="61" t="n">
+        <v>57</v>
+      </c>
+      <c r="D23" s="61" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E23" s="61" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F23" s="32" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="G23" s="61" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="H23" s="61" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I23" s="61" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="J23" s="32" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="K23" s="61" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="L23" s="61" t="n">
+        <v>99.3</v>
       </c>
       <c r="M23" s="61" t="n">
         <v>23</v>
       </c>
-      <c r="N23" s="61" t="s">
-        <v>243</v>
+      <c r="N23" s="61" t="n">
+        <v>10.6</v>
       </c>
       <c r="O23" s="23" t="n"/>
     </row>
@@ -3820,43 +2290,43 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="H24" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="K24" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="L24" s="61" t="s">
-        <v>252</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="61" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="D24" s="61" t="n">
+        <v>14</v>
+      </c>
+      <c r="E24" s="61" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F24" s="32" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="G24" s="61" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="H24" s="61" t="n">
+        <v>17</v>
+      </c>
+      <c r="I24" s="61" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="J24" s="32" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="K24" s="61" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="L24" s="61" t="n">
+        <v>95.40000000000001</v>
       </c>
       <c r="M24" s="61" t="n">
         <v>20.1</v>
       </c>
-      <c r="N24" s="61" t="s">
-        <v>253</v>
+      <c r="N24" s="61" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3864,43 +2334,43 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="K25" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="L25" s="61" t="s">
-        <v>220</v>
+        <v>39</v>
+      </c>
+      <c r="C25" s="61" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="D25" s="61" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E25" s="61" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F25" s="32" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="G25" s="61" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="H25" s="61" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="I25" s="61" t="n">
+        <v>80</v>
+      </c>
+      <c r="J25" s="32" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="K25" s="61" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="L25" s="61" t="n">
+        <v>95</v>
       </c>
       <c r="M25" s="61" t="n">
         <v>23.7</v>
       </c>
-      <c r="N25" s="61" t="s">
-        <v>261</v>
+      <c r="N25" s="61" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3908,43 +2378,43 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="G26" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="I26" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="K26" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="L26" s="61" t="s">
-        <v>271</v>
+        <v>40</v>
+      </c>
+      <c r="C26" s="61" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D26" s="61" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E26" s="61" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F26" s="32" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="G26" s="61" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="H26" s="61" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I26" s="61" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J26" s="32" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K26" s="61" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="L26" s="61" t="n">
+        <v>97</v>
       </c>
       <c r="M26" s="61" t="n">
         <v>20.7</v>
       </c>
-      <c r="N26" s="61" t="s">
-        <v>272</v>
+      <c r="N26" s="61" t="n">
+        <v>10.2</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3952,43 +2422,43 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>273</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="H27" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="K27" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="L27" s="61" t="s">
-        <v>283</v>
+        <v>41</v>
+      </c>
+      <c r="C27" s="61" t="n">
+        <v>54</v>
+      </c>
+      <c r="D27" s="61" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E27" s="61" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F27" s="32" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="G27" s="61" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="H27" s="61" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I27" s="61" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="J27" s="32" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="K27" s="61" t="n">
+        <v>126</v>
+      </c>
+      <c r="L27" s="61" t="n">
+        <v>103.5</v>
       </c>
       <c r="M27" s="61" t="n">
         <v>22.5</v>
       </c>
-      <c r="N27" s="61" t="s">
-        <v>83</v>
+      <c r="N27" s="61" t="n">
+        <v>11.8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3996,43 +2466,43 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>284</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="H28" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="K28" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="L28" s="61" t="s">
-        <v>291</v>
+        <v>42</v>
+      </c>
+      <c r="C28" s="61" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="D28" s="61" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E28" s="61" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="F28" s="32" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="G28" s="61" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="H28" s="61" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I28" s="61" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="J28" s="32" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="K28" s="61" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="L28" s="61" t="n">
+        <v>98.40000000000001</v>
       </c>
       <c r="M28" s="61" t="n">
         <v>19.7</v>
       </c>
-      <c r="N28" s="61" t="s">
-        <v>243</v>
+      <c r="N28" s="61" t="n">
+        <v>10.6</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -4040,43 +2510,43 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="G29" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>300</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="61" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="D29" s="61" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E29" s="61" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F29" s="32" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="G29" s="61" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="H29" s="61" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I29" s="61" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J29" s="32" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="K29" s="61" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="L29" s="61" t="n">
+        <v>96.5</v>
       </c>
       <c r="M29" s="61" t="n">
         <v>18.8</v>
       </c>
-      <c r="N29" s="61" t="s">
-        <v>28</v>
+      <c r="N29" s="61" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4084,43 +2554,43 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="H30" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="K30" s="61" t="s">
-        <v>308</v>
-      </c>
-      <c r="L30" s="61" t="s">
-        <v>309</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="61" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="D30" s="61" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E30" s="61" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F30" s="32" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="G30" s="61" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H30" s="61" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="I30" s="61" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="J30" s="32" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="K30" s="61" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="L30" s="61" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="M30" s="61" t="n">
         <v>20.8</v>
       </c>
-      <c r="N30" s="61" t="s">
-        <v>310</v>
+      <c r="N30" s="61" t="n">
+        <v>9.1</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4128,43 +2598,43 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="G31" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="I31" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="K31" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="L31" s="61" t="s">
-        <v>317</v>
+        <v>45</v>
+      </c>
+      <c r="C31" s="61" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="D31" s="61" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E31" s="61" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F31" s="32" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G31" s="61" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="H31" s="61" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="I31" s="61" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="J31" s="32" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="K31" s="61" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="L31" s="61" t="n">
+        <v>99.09999999999999</v>
       </c>
       <c r="M31" s="61" t="n">
         <v>16.7</v>
       </c>
-      <c r="N31" s="61" t="s">
-        <v>272</v>
+      <c r="N31" s="61" t="n">
+        <v>10.2</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4172,43 +2642,43 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="H32" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="I32" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="K32" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="L32" s="61" t="s">
-        <v>325</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="61" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="D32" s="61" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E32" s="61" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="F32" s="32" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G32" s="61" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="H32" s="61" t="n">
+        <v>16</v>
+      </c>
+      <c r="I32" s="61" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="J32" s="32" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="K32" s="61" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="L32" s="61" t="n">
+        <v>104.2</v>
       </c>
       <c r="M32" s="61" t="n">
         <v>16.6</v>
       </c>
-      <c r="N32" s="61" t="s">
-        <v>326</v>
+      <c r="N32" s="61" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4216,43 +2686,43 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>327</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="I33" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="K33" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="L33" s="61" t="s">
-        <v>335</v>
+        <v>47</v>
+      </c>
+      <c r="C33" s="61" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D33" s="61" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="E33" s="61" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F33" s="32" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="G33" s="61" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="H33" s="61" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="I33" s="61" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J33" s="32" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="K33" s="61" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="L33" s="61" t="n">
+        <v>101.6</v>
       </c>
       <c r="M33" s="61" t="n">
         <v>14.5</v>
       </c>
-      <c r="N33" s="61" t="s">
-        <v>336</v>
+      <c r="N33" s="61" t="n">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -4260,43 +2730,43 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>337</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>339</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="G34" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="H34" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="I34" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="K34" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="L34" s="61" t="s">
-        <v>345</v>
+        <v>48</v>
+      </c>
+      <c r="C34" s="61" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="D34" s="61" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E34" s="61" t="n">
+        <v>30</v>
+      </c>
+      <c r="F34" s="32" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="G34" s="61" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="H34" s="61" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I34" s="61" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="J34" s="32" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="K34" s="61" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="L34" s="61" t="n">
+        <v>102.3</v>
       </c>
       <c r="M34" s="61" t="n">
         <v>13.3</v>
       </c>
-      <c r="N34" s="61" t="s">
-        <v>346</v>
+      <c r="N34" s="61" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -4304,43 +2774,43 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="G35" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="H35" s="61" t="s">
-        <v>351</v>
-      </c>
-      <c r="I35" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="K35" s="61" t="s">
-        <v>353</v>
-      </c>
-      <c r="L35" s="61" t="s">
-        <v>354</v>
+        <v>49</v>
+      </c>
+      <c r="C35" s="61" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D35" s="61" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E35" s="61" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F35" s="32" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="G35" s="61" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="H35" s="61" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="I35" s="61" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="J35" s="32" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="K35" s="61" t="n">
+        <v>113</v>
+      </c>
+      <c r="L35" s="61" t="n">
+        <v>95.59999999999999</v>
       </c>
       <c r="M35" s="61" t="n">
         <v>17.4</v>
       </c>
-      <c r="N35" s="61" t="s">
-        <v>170</v>
+      <c r="N35" s="61" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -4348,43 +2818,43 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>357</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>358</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="H36" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="I36" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="K36" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="L36" s="61" t="s">
-        <v>362</v>
+        <v>50</v>
+      </c>
+      <c r="C36" s="61" t="n">
+        <v>51</v>
+      </c>
+      <c r="D36" s="61" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E36" s="61" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F36" s="32" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="G36" s="61" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="H36" s="61" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="I36" s="61" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="J36" s="32" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="K36" s="61" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="L36" s="61" t="n">
+        <v>94.8</v>
       </c>
       <c r="M36" s="61" t="n">
         <v>15.1</v>
       </c>
-      <c r="N36" s="61" t="s">
-        <v>363</v>
+      <c r="N36" s="61" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4392,43 +2862,43 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>364</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="G37" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="H37" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="K37" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="L37" s="61" t="s">
-        <v>371</v>
+        <v>51</v>
+      </c>
+      <c r="C37" s="61" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="D37" s="61" t="n">
+        <v>14</v>
+      </c>
+      <c r="E37" s="61" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F37" s="32" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="G37" s="61" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="H37" s="61" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I37" s="61" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="J37" s="32" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="K37" s="61" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="L37" s="61" t="n">
+        <v>95.2</v>
       </c>
       <c r="M37" s="61" t="n">
         <v>16.3</v>
       </c>
-      <c r="N37" s="61" t="s">
-        <v>372</v>
+      <c r="N37" s="61" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4436,43 +2906,43 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>373</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>374</v>
-      </c>
-      <c r="E38" s="61" t="s">
-        <v>375</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="H38" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="I38" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="J38" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="K38" s="61" t="s">
-        <v>379</v>
-      </c>
-      <c r="L38" s="61" t="s">
-        <v>380</v>
+        <v>52</v>
+      </c>
+      <c r="C38" s="61" t="n">
+        <v>54</v>
+      </c>
+      <c r="D38" s="61" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E38" s="61" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F38" s="32" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G38" s="61" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H38" s="61" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I38" s="61" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J38" s="32" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="K38" s="61" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="L38" s="61" t="n">
+        <v>95.90000000000001</v>
       </c>
       <c r="M38" s="61" t="n">
         <v>15.5</v>
       </c>
-      <c r="N38" s="61" t="s">
-        <v>363</v>
+      <c r="N38" s="61" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4480,43 +2950,43 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
-      </c>
-      <c r="C39" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="G39" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="H39" s="61" t="s">
-        <v>384</v>
-      </c>
-      <c r="I39" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="J39" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="K39" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="L39" s="61" t="s">
-        <v>271</v>
+        <v>53</v>
+      </c>
+      <c r="C39" s="61" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D39" s="61" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E39" s="61" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F39" s="32" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="G39" s="61" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="H39" s="61" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="I39" s="61" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="J39" s="32" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="K39" s="61" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="L39" s="61" t="n">
+        <v>97</v>
       </c>
       <c r="M39" s="61" t="n">
         <v>17.5</v>
       </c>
-      <c r="N39" s="61" t="s">
-        <v>336</v>
+      <c r="N39" s="61" t="n">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4524,43 +2994,43 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>388</v>
-      </c>
-      <c r="C40" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="61" t="s">
-        <v>389</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="G40" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="H40" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="I40" s="61" t="s">
-        <v>391</v>
-      </c>
-      <c r="J40" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="K40" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="L40" s="61" t="s">
-        <v>394</v>
+        <v>54</v>
+      </c>
+      <c r="C40" s="61" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="D40" s="61" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E40" s="61" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F40" s="32" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="G40" s="61" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="H40" s="61" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I40" s="61" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="J40" s="32" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K40" s="61" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="L40" s="61" t="n">
+        <v>104.6</v>
       </c>
       <c r="M40" s="61" t="n">
         <v>16.3</v>
       </c>
-      <c r="N40" s="61" t="s">
-        <v>127</v>
+      <c r="N40" s="61" t="n">
+        <v>9.4</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4568,43 +3038,43 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>395</v>
-      </c>
-      <c r="C41" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="G41" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="H41" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="J41" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="K41" s="61" t="s">
-        <v>398</v>
-      </c>
-      <c r="L41" s="61" t="s">
-        <v>399</v>
+        <v>55</v>
+      </c>
+      <c r="C41" s="61" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="D41" s="61" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E41" s="61" t="n">
+        <v>27</v>
+      </c>
+      <c r="F41" s="32" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="G41" s="61" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="H41" s="61" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="I41" s="61" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="J41" s="32" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="K41" s="61" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="L41" s="61" t="n">
+        <v>93.7</v>
       </c>
       <c r="M41" s="61" t="n">
         <v>16</v>
       </c>
-      <c r="N41" s="61" t="s">
-        <v>400</v>
+      <c r="N41" s="61" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4612,43 +3082,43 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="D42" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="H42" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" s="61" t="s">
-        <v>404</v>
-      </c>
-      <c r="J42" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="K42" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="L42" s="61" t="s">
-        <v>192</v>
+        <v>56</v>
+      </c>
+      <c r="C42" s="61" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="D42" s="61" t="n">
+        <v>15</v>
+      </c>
+      <c r="E42" s="61" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F42" s="32" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="G42" s="61" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="H42" s="61" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I42" s="61" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="J42" s="32" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K42" s="61" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="L42" s="61" t="n">
+        <v>96.3</v>
       </c>
       <c r="M42" s="61" t="n">
         <v>15.6</v>
       </c>
-      <c r="N42" s="61" t="s">
-        <v>406</v>
+      <c r="N42" s="61" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4656,43 +3126,43 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>407</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="H43" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="I43" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="K43" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="L43" s="61" t="s">
-        <v>413</v>
+        <v>57</v>
+      </c>
+      <c r="C43" s="61" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="D43" s="61" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E43" s="61" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F43" s="32" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="G43" s="61" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="H43" s="61" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I43" s="61" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="J43" s="32" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="K43" s="61" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="L43" s="61" t="n">
+        <v>100.5</v>
       </c>
       <c r="M43" s="61" t="n">
         <v>14.4</v>
       </c>
-      <c r="N43" s="61" t="s">
-        <v>127</v>
+      <c r="N43" s="61" t="n">
+        <v>9.4</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4700,43 +3170,43 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>414</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="61" t="s">
-        <v>384</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="G44" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="J44" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="K44" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="L44" s="61" t="s">
-        <v>380</v>
+        <v>58</v>
+      </c>
+      <c r="C44" s="61" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="D44" s="61" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E44" s="61" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F44" s="32" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="G44" s="61" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="H44" s="61" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="I44" s="61" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J44" s="32" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="K44" s="61" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="L44" s="61" t="n">
+        <v>95.90000000000001</v>
       </c>
       <c r="M44" s="61" t="n">
         <v>16.5</v>
       </c>
-      <c r="N44" s="61" t="s">
-        <v>336</v>
+      <c r="N44" s="61" t="n">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4744,43 +3214,43 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>418</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>420</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>421</v>
-      </c>
-      <c r="J45" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="L45" s="61" t="s">
-        <v>422</v>
+        <v>59</v>
+      </c>
+      <c r="C45" s="61" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="D45" s="61" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E45" s="61" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="F45" s="32" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="G45" s="61" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="H45" s="61" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I45" s="61" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="J45" s="32" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K45" s="61" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="L45" s="61" t="n">
+        <v>99.8</v>
       </c>
       <c r="M45" s="61" t="n">
         <v>16.3</v>
       </c>
-      <c r="N45" s="61" t="s">
-        <v>400</v>
+      <c r="N45" s="61" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4788,43 +3258,43 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>423</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>424</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>425</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="G46" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>426</v>
-      </c>
-      <c r="I46" s="61" t="s">
-        <v>427</v>
-      </c>
-      <c r="J46" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="K46" s="61" t="s">
-        <v>428</v>
-      </c>
-      <c r="L46" s="61" t="s">
-        <v>429</v>
+        <v>60</v>
+      </c>
+      <c r="C46" s="61" t="n">
+        <v>53</v>
+      </c>
+      <c r="D46" s="61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E46" s="61" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F46" s="32" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="G46" s="61" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="H46" s="61" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I46" s="61" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="J46" s="32" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="K46" s="61" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="L46" s="61" t="n">
+        <v>97.40000000000001</v>
       </c>
       <c r="M46" s="61" t="n">
         <v>15.2</v>
       </c>
-      <c r="N46" s="61" t="s">
-        <v>430</v>
+      <c r="N46" s="61" t="n">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4832,43 +3302,43 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>431</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>432</v>
-      </c>
-      <c r="D47" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="61" t="s">
-        <v>433</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>435</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>436</v>
-      </c>
-      <c r="J47" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="K47" s="61" t="s">
-        <v>438</v>
-      </c>
-      <c r="L47" s="61" t="s">
-        <v>439</v>
+        <v>61</v>
+      </c>
+      <c r="C47" s="61" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D47" s="61" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E47" s="61" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F47" s="32" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="G47" s="61" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="H47" s="61" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="I47" s="61" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="J47" s="32" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="K47" s="61" t="n">
+        <v>111.3</v>
+      </c>
+      <c r="L47" s="61" t="n">
+        <v>95.5</v>
       </c>
       <c r="M47" s="61" t="n">
         <v>15.8</v>
       </c>
-      <c r="N47" s="61" t="s">
-        <v>440</v>
+      <c r="N47" s="61" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4876,43 +3346,43 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>441</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>435</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>442</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="G48" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="61" t="s">
-        <v>444</v>
-      </c>
-      <c r="I48" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="K48" s="61" t="s">
-        <v>445</v>
-      </c>
-      <c r="L48" s="61" t="s">
-        <v>446</v>
+        <v>62</v>
+      </c>
+      <c r="C48" s="61" t="n">
+        <v>51</v>
+      </c>
+      <c r="D48" s="61" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E48" s="61" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F48" s="32" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="G48" s="61" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="H48" s="61" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I48" s="61" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="J48" s="32" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K48" s="61" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="L48" s="61" t="n">
+        <v>96</v>
       </c>
       <c r="M48" s="61" t="n">
         <v>14.1</v>
       </c>
-      <c r="N48" s="61" t="s">
-        <v>447</v>
+      <c r="N48" s="61" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4920,43 +3390,43 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>448</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>449</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="E49" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="I49" s="61" t="s">
-        <v>450</v>
-      </c>
-      <c r="J49" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="K49" s="61" t="s">
-        <v>452</v>
-      </c>
-      <c r="L49" s="61" t="s">
-        <v>453</v>
+        <v>63</v>
+      </c>
+      <c r="C49" s="61" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D49" s="61" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E49" s="61" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F49" s="32" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="G49" s="61" t="n">
+        <v>51</v>
+      </c>
+      <c r="H49" s="61" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I49" s="61" t="n">
+        <v>71</v>
+      </c>
+      <c r="J49" s="32" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="K49" s="61" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="L49" s="61" t="n">
+        <v>103.6</v>
       </c>
       <c r="M49" s="61" t="n">
         <v>13.8</v>
       </c>
-      <c r="N49" s="61" t="s">
-        <v>454</v>
+      <c r="N49" s="61" t="n">
+        <v>8.6</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4964,43 +3434,43 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>455</v>
-      </c>
-      <c r="C50" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="E50" s="61" t="s">
-        <v>433</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="G50" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="I50" s="61" t="s">
-        <v>457</v>
-      </c>
-      <c r="J50" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="K50" s="61" t="s">
-        <v>459</v>
-      </c>
-      <c r="L50" s="61" t="s">
-        <v>460</v>
+        <v>64</v>
+      </c>
+      <c r="C50" s="61" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="D50" s="61" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E50" s="61" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F50" s="32" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G50" s="61" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="H50" s="61" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="I50" s="61" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="J50" s="32" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="K50" s="61" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="L50" s="61" t="n">
+        <v>98.8</v>
       </c>
       <c r="M50" s="61" t="n">
         <v>14.3</v>
       </c>
-      <c r="N50" s="61" t="s">
-        <v>461</v>
+      <c r="N50" s="61" t="n">
+        <v>7.1</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -5008,43 +3478,43 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>462</v>
-      </c>
-      <c r="C51" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="61" t="s">
-        <v>463</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="G51" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="H51" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="I51" s="61" t="s">
-        <v>465</v>
-      </c>
-      <c r="J51" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="K51" s="61" t="s">
-        <v>467</v>
-      </c>
-      <c r="L51" s="61" t="s">
-        <v>468</v>
+        <v>65</v>
+      </c>
+      <c r="C51" s="61" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="D51" s="61" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E51" s="61" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F51" s="32" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="G51" s="61" t="n">
+        <v>49</v>
+      </c>
+      <c r="H51" s="61" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I51" s="61" t="n">
+        <v>77</v>
+      </c>
+      <c r="J51" s="32" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="K51" s="61" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="L51" s="61" t="n">
+        <v>95.8</v>
       </c>
       <c r="M51" s="61" t="n">
         <v>13.7</v>
       </c>
-      <c r="N51" s="61" t="s">
-        <v>211</v>
+      <c r="N51" s="61" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -5052,43 +3522,43 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>469</v>
-      </c>
-      <c r="C52" s="61" t="s">
-        <v>470</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="61" t="s">
-        <v>471</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="G52" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="H52" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="61" t="s">
-        <v>473</v>
-      </c>
-      <c r="J52" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="K52" s="61" t="s">
-        <v>474</v>
-      </c>
-      <c r="L52" s="61" t="s">
-        <v>242</v>
+        <v>66</v>
+      </c>
+      <c r="C52" s="61" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="D52" s="61" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E52" s="61" t="n">
+        <v>29</v>
+      </c>
+      <c r="F52" s="32" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="G52" s="61" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="H52" s="61" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="I52" s="61" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="J52" s="32" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="K52" s="61" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="L52" s="61" t="n">
+        <v>99.3</v>
       </c>
       <c r="M52" s="61" t="n">
         <v>14.2</v>
       </c>
-      <c r="N52" s="61" t="s">
-        <v>475</v>
+      <c r="N52" s="61" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5096,43 +3566,43 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>476</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="G53" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="H53" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="J53" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="K53" s="61" t="s">
-        <v>480</v>
-      </c>
-      <c r="L53" s="61" t="s">
-        <v>481</v>
+        <v>67</v>
+      </c>
+      <c r="C53" s="61" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D53" s="61" t="n">
+        <v>16</v>
+      </c>
+      <c r="E53" s="61" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F53" s="32" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="G53" s="61" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="H53" s="61" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I53" s="61" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J53" s="32" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="K53" s="61" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="L53" s="61" t="n">
+        <v>92.7</v>
       </c>
       <c r="M53" s="61" t="n">
         <v>12.2</v>
       </c>
-      <c r="N53" s="61" t="s">
-        <v>482</v>
+      <c r="N53" s="61" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5140,43 +3610,43 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>483</v>
-      </c>
-      <c r="C54" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>484</v>
-      </c>
-      <c r="E54" s="61" t="s">
-        <v>485</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="G54" s="61" t="s">
-        <v>486</v>
-      </c>
-      <c r="H54" s="61" t="s">
-        <v>487</v>
-      </c>
-      <c r="I54" s="61" t="s">
-        <v>488</v>
-      </c>
-      <c r="J54" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="K54" s="61" t="s">
-        <v>474</v>
-      </c>
-      <c r="L54" s="61" t="s">
-        <v>490</v>
+        <v>68</v>
+      </c>
+      <c r="C54" s="61" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D54" s="61" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E54" s="61" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F54" s="32" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="G54" s="61" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="H54" s="61" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I54" s="61" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="J54" s="32" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="K54" s="61" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="L54" s="61" t="n">
+        <v>99.90000000000001</v>
       </c>
       <c r="M54" s="61" t="n">
         <v>13.6</v>
       </c>
-      <c r="N54" s="61" t="s">
-        <v>491</v>
+      <c r="N54" s="61" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -5184,43 +3654,43 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>492</v>
-      </c>
-      <c r="C55" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="61" t="s">
-        <v>442</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="G55" s="61" t="s">
-        <v>494</v>
-      </c>
-      <c r="H55" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="I55" s="61" t="s">
-        <v>404</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="K55" s="61" t="s">
-        <v>496</v>
-      </c>
-      <c r="L55" s="61" t="s">
-        <v>497</v>
+        <v>69</v>
+      </c>
+      <c r="C55" s="61" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D55" s="61" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E55" s="61" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F55" s="32" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="G55" s="61" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="H55" s="61" t="n">
+        <v>14</v>
+      </c>
+      <c r="I55" s="61" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="J55" s="32" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="K55" s="61" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="L55" s="61" t="n">
+        <v>101.3</v>
       </c>
       <c r="M55" s="61" t="n">
         <v>13.4</v>
       </c>
-      <c r="N55" s="61" t="s">
-        <v>498</v>
+      <c r="N55" s="61" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -5228,43 +3698,43 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>499</v>
-      </c>
-      <c r="C56" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="61" t="s">
-        <v>500</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="G56" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="H56" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="I56" s="61" t="s">
-        <v>502</v>
-      </c>
-      <c r="J56" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="K56" s="61" t="s">
-        <v>504</v>
-      </c>
-      <c r="L56" s="61" t="s">
-        <v>505</v>
+        <v>70</v>
+      </c>
+      <c r="C56" s="61" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="D56" s="61" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E56" s="61" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F56" s="32" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="G56" s="61" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="H56" s="61" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="I56" s="61" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="J56" s="32" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K56" s="61" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="L56" s="61" t="n">
+        <v>100.7</v>
       </c>
       <c r="M56" s="61" t="n">
         <v>13.5</v>
       </c>
-      <c r="N56" s="61" t="s">
-        <v>221</v>
+      <c r="N56" s="61" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -5272,43 +3742,43 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>506</v>
-      </c>
-      <c r="C57" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="F57" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="G57" s="61" t="s">
-        <v>509</v>
-      </c>
-      <c r="H57" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57" s="61" t="s">
-        <v>488</v>
-      </c>
-      <c r="J57" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="K57" s="61" t="s">
-        <v>510</v>
-      </c>
-      <c r="L57" s="61" t="s">
-        <v>511</v>
+        <v>71</v>
+      </c>
+      <c r="C57" s="61" t="n">
+        <v>52</v>
+      </c>
+      <c r="D57" s="61" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E57" s="61" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="F57" s="32" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="G57" s="61" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="H57" s="61" t="n">
+        <v>15</v>
+      </c>
+      <c r="I57" s="61" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="J57" s="32" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="K57" s="61" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="L57" s="61" t="n">
+        <v>97.7</v>
       </c>
       <c r="M57" s="61" t="n">
         <v>10.7</v>
       </c>
-      <c r="N57" s="61" t="s">
-        <v>430</v>
+      <c r="N57" s="61" t="n">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -5316,43 +3786,43 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>512</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>513</v>
-      </c>
-      <c r="E58" s="61" t="s">
-        <v>514</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="G58" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58" s="61" t="s">
-        <v>516</v>
-      </c>
-      <c r="I58" s="61" t="s">
-        <v>517</v>
-      </c>
-      <c r="J58" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="K58" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="L58" s="61" t="s">
-        <v>520</v>
+        <v>72</v>
+      </c>
+      <c r="C58" s="61" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="D58" s="61" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E58" s="61" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F58" s="32" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="G58" s="61" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="H58" s="61" t="n">
+        <v>18</v>
+      </c>
+      <c r="I58" s="61" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="J58" s="32" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K58" s="61" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="L58" s="61" t="n">
+        <v>96.40000000000001</v>
       </c>
       <c r="M58" s="61" t="n">
         <v>12.7</v>
       </c>
-      <c r="N58" s="61" t="s">
-        <v>521</v>
+      <c r="N58" s="61" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -5360,43 +3830,43 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>522</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="61" t="s">
-        <v>523</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="H59" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" s="61" t="s">
-        <v>524</v>
-      </c>
-      <c r="J59" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="K59" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="L59" s="61" t="s">
-        <v>526</v>
+        <v>73</v>
+      </c>
+      <c r="C59" s="61" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="D59" s="61" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E59" s="61" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F59" s="32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G59" s="61" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="H59" s="61" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I59" s="61" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J59" s="32" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="K59" s="61" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="L59" s="61" t="n">
+        <v>97.3</v>
       </c>
       <c r="M59" s="61" t="n">
         <v>14.9</v>
       </c>
-      <c r="N59" s="61" t="s">
-        <v>527</v>
+      <c r="N59" s="61" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -5404,43 +3874,43 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>528</v>
-      </c>
-      <c r="C60" s="61" t="s">
-        <v>494</v>
-      </c>
-      <c r="D60" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="G60" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="I60" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="J60" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="K60" s="61" t="s">
-        <v>531</v>
-      </c>
-      <c r="L60" s="61" t="s">
-        <v>532</v>
+        <v>74</v>
+      </c>
+      <c r="C60" s="61" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D60" s="61" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="E60" s="61" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="F60" s="32" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="G60" s="61" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="H60" s="61" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I60" s="61" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="J60" s="32" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="K60" s="61" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="L60" s="61" t="n">
+        <v>92.2</v>
       </c>
       <c r="M60" s="61" t="n">
         <v>13.1</v>
       </c>
-      <c r="N60" s="61" t="s">
-        <v>533</v>
+      <c r="N60" s="61" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -5448,43 +3918,43 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>534</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="61" t="s">
-        <v>535</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>536</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="G61" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="H61" s="61" t="s">
-        <v>487</v>
-      </c>
-      <c r="I61" s="61" t="s">
-        <v>537</v>
-      </c>
-      <c r="J61" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="K61" s="61" t="s">
-        <v>539</v>
-      </c>
-      <c r="L61" s="61" t="s">
-        <v>540</v>
+        <v>75</v>
+      </c>
+      <c r="C61" s="61" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="D61" s="61" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E61" s="61" t="n">
+        <v>25</v>
+      </c>
+      <c r="F61" s="32" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="G61" s="61" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="H61" s="61" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I61" s="61" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J61" s="32" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="K61" s="61" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="L61" s="61" t="n">
+        <v>96.09999999999999</v>
       </c>
       <c r="M61" s="61" t="n">
         <v>12.4</v>
       </c>
-      <c r="N61" s="61" t="s">
-        <v>541</v>
+      <c r="N61" s="61" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5492,43 +3962,43 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>542</v>
-      </c>
-      <c r="C62" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="61" t="s">
-        <v>543</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="G62" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" s="61" t="s">
-        <v>545</v>
-      </c>
-      <c r="I62" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="J62" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K62" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="L62" s="61" t="s">
-        <v>399</v>
+        <v>76</v>
+      </c>
+      <c r="C62" s="61" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="D62" s="61" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E62" s="61" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F62" s="32" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G62" s="61" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="H62" s="61" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="I62" s="61" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="J62" s="32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K62" s="61" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="L62" s="61" t="n">
+        <v>93.7</v>
       </c>
       <c r="M62" s="61" t="n">
         <v>10.5</v>
       </c>
-      <c r="N62" s="61" t="s">
-        <v>272</v>
+      <c r="N62" s="61" t="n">
+        <v>10.2</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -5536,43 +4006,43 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>546</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>547</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="G63" s="61" t="s">
-        <v>548</v>
-      </c>
-      <c r="H63" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="I63" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="J63" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="K63" s="61" t="s">
-        <v>549</v>
-      </c>
-      <c r="L63" s="61" t="s">
-        <v>380</v>
+        <v>77</v>
+      </c>
+      <c r="C63" s="61" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D63" s="61" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E63" s="61" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F63" s="32" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="G63" s="61" t="n">
+        <v>50</v>
+      </c>
+      <c r="H63" s="61" t="n">
+        <v>16</v>
+      </c>
+      <c r="I63" s="61" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J63" s="32" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="K63" s="61" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="L63" s="61" t="n">
+        <v>95.90000000000001</v>
       </c>
       <c r="M63" s="61" t="n">
         <v>11.5</v>
       </c>
-      <c r="N63" s="61" t="s">
-        <v>272</v>
+      <c r="N63" s="61" t="n">
+        <v>10.2</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5580,43 +4050,43 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>550</v>
-      </c>
-      <c r="C64" s="61" t="s">
-        <v>551</v>
-      </c>
-      <c r="D64" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="61" t="s">
-        <v>552</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G64" s="61" t="s">
-        <v>486</v>
-      </c>
-      <c r="H64" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="I64" s="61" t="s">
-        <v>553</v>
-      </c>
-      <c r="J64" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="K64" s="61" t="s">
-        <v>554</v>
-      </c>
-      <c r="L64" s="61" t="s">
-        <v>526</v>
+        <v>78</v>
+      </c>
+      <c r="C64" s="61" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D64" s="61" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E64" s="61" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="F64" s="32" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="G64" s="61" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="H64" s="61" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="I64" s="61" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="J64" s="32" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="K64" s="61" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="L64" s="61" t="n">
+        <v>97.3</v>
       </c>
       <c r="M64" s="61" t="n">
         <v>11.5</v>
       </c>
-      <c r="N64" s="61" t="s">
-        <v>555</v>
+      <c r="N64" s="61" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5624,43 +4094,43 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>556</v>
-      </c>
-      <c r="C65" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="61" t="s">
-        <v>557</v>
-      </c>
-      <c r="E65" s="61" t="s">
-        <v>558</v>
-      </c>
-      <c r="F65" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="G65" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="H65" s="61" t="s">
-        <v>487</v>
-      </c>
-      <c r="I65" s="61" t="s">
-        <v>560</v>
-      </c>
-      <c r="J65" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="K65" s="61" t="s">
-        <v>561</v>
-      </c>
-      <c r="L65" s="61" t="s">
-        <v>562</v>
+        <v>79</v>
+      </c>
+      <c r="C65" s="61" t="n">
+        <v>55</v>
+      </c>
+      <c r="D65" s="61" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E65" s="61" t="n">
+        <v>31</v>
+      </c>
+      <c r="F65" s="32" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="G65" s="61" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="H65" s="61" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I65" s="61" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J65" s="32" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="K65" s="61" t="n">
+        <v>118</v>
+      </c>
+      <c r="L65" s="61" t="n">
+        <v>105.6</v>
       </c>
       <c r="M65" s="61" t="n">
         <v>12.4</v>
       </c>
-      <c r="N65" s="61" t="s">
-        <v>563</v>
+      <c r="N65" s="61" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5668,43 +4138,43 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>564</v>
-      </c>
-      <c r="C66" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="D66" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="E66" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="G66" s="61" t="s">
-        <v>566</v>
-      </c>
-      <c r="H66" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="I66" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="J66" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="K66" s="61" t="s">
-        <v>568</v>
-      </c>
-      <c r="L66" s="61" t="s">
-        <v>569</v>
+        <v>80</v>
+      </c>
+      <c r="C66" s="61" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="D66" s="61" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E66" s="61" t="n">
+        <v>28</v>
+      </c>
+      <c r="F66" s="32" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="G66" s="61" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="H66" s="61" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="I66" s="61" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="J66" s="32" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="K66" s="61" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="L66" s="61" t="n">
+        <v>100.9</v>
       </c>
       <c r="M66" s="61" t="n">
         <v>10.2</v>
       </c>
-      <c r="N66" s="61" t="s">
-        <v>570</v>
+      <c r="N66" s="61" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5712,43 +4182,43 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>571</v>
-      </c>
-      <c r="C67" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" s="61" t="s">
-        <v>384</v>
-      </c>
-      <c r="E67" s="61" t="s">
-        <v>572</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="G67" s="61" t="s">
-        <v>486</v>
-      </c>
-      <c r="H67" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="I67" s="61" t="s">
-        <v>560</v>
-      </c>
-      <c r="J67" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="K67" s="61" t="s">
-        <v>573</v>
-      </c>
-      <c r="L67" s="61" t="s">
-        <v>520</v>
+        <v>81</v>
+      </c>
+      <c r="C67" s="61" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D67" s="61" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E67" s="61" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F67" s="32" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="G67" s="61" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="H67" s="61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I67" s="61" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J67" s="32" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="K67" s="61" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="L67" s="61" t="n">
+        <v>96.40000000000001</v>
       </c>
       <c r="M67" s="61" t="n">
         <v>12.3</v>
       </c>
-      <c r="N67" s="61" t="s">
-        <v>574</v>
+      <c r="N67" s="61" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5756,43 +4226,43 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>575</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="E68" s="61" t="s">
-        <v>576</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="G68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H68" s="61" t="s">
-        <v>578</v>
-      </c>
-      <c r="I68" s="61" t="s">
-        <v>579</v>
-      </c>
-      <c r="J68" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="K68" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="L68" s="61" t="s">
-        <v>580</v>
+        <v>82</v>
+      </c>
+      <c r="C68" s="61" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="D68" s="61" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E68" s="61" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F68" s="32" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="G68" s="61" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="H68" s="61" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="I68" s="61" t="n">
+        <v>72</v>
+      </c>
+      <c r="J68" s="32" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="K68" s="61" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="L68" s="61" t="n">
+        <v>103.7</v>
       </c>
       <c r="M68" s="61" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="N68" s="61" t="s">
-        <v>326</v>
+      <c r="N68" s="61" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5800,43 +4270,43 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>581</v>
-      </c>
-      <c r="C69" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="E69" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>582</v>
-      </c>
-      <c r="G69" s="61" t="s">
-        <v>583</v>
-      </c>
-      <c r="H69" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="I69" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="J69" s="32" t="s">
-        <v>584</v>
-      </c>
-      <c r="K69" s="61" t="s">
-        <v>585</v>
-      </c>
-      <c r="L69" s="61" t="s">
-        <v>586</v>
+        <v>83</v>
+      </c>
+      <c r="C69" s="61" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="D69" s="61" t="n">
+        <v>16</v>
+      </c>
+      <c r="E69" s="61" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F69" s="32" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="G69" s="61" t="n">
+        <v>44</v>
+      </c>
+      <c r="H69" s="61" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I69" s="61" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J69" s="32" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="K69" s="61" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="L69" s="61" t="n">
+        <v>93.59999999999999</v>
       </c>
       <c r="M69" s="61" t="n">
         <v>14</v>
       </c>
-      <c r="N69" s="61" t="s">
-        <v>587</v>
+      <c r="N69" s="61" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5844,43 +4314,43 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>588</v>
-      </c>
-      <c r="C70" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="E70" s="61" t="s">
-        <v>589</v>
-      </c>
-      <c r="F70" s="32" t="s">
-        <v>590</v>
-      </c>
-      <c r="G70" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="H70" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="I70" s="61" t="s">
-        <v>591</v>
-      </c>
-      <c r="J70" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="K70" s="61" t="s">
-        <v>353</v>
-      </c>
-      <c r="L70" s="61" t="s">
-        <v>593</v>
+        <v>84</v>
+      </c>
+      <c r="C70" s="61" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D70" s="61" t="n">
+        <v>16</v>
+      </c>
+      <c r="E70" s="61" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F70" s="32" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="G70" s="61" t="n">
+        <v>51</v>
+      </c>
+      <c r="H70" s="61" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="I70" s="61" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="J70" s="32" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="K70" s="61" t="n">
+        <v>113</v>
+      </c>
+      <c r="L70" s="61" t="n">
+        <v>102.6</v>
       </c>
       <c r="M70" s="61" t="n">
         <v>10.4</v>
       </c>
-      <c r="N70" s="61" t="s">
-        <v>594</v>
+      <c r="N70" s="61" t="n">
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -5917,12 +4387,12 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" t="s">
-        <v>595</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="B2" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -6018,7 +4488,7 @@
         <v/>
       </c>
       <c r="AA3" t="s">
-        <v>597</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -6215,7 +4685,7 @@
         <v/>
       </c>
       <c r="AA7" t="s">
-        <v>598</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -6292,7 +4762,7 @@
         <v/>
       </c>
       <c r="AA9" t="s">
-        <v>599</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -6488,7 +4958,7 @@
         <v/>
       </c>
       <c r="AA13" t="s">
-        <v>600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -6524,12 +4994,12 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" t="s">
-        <v>601</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="B2" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -7640,7 +6110,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="B27" t="s">
-        <v>602</v>
+        <v>92</v>
       </c>
       <c r="D27" s="61" t="n"/>
       <c r="E27" s="61" t="n"/>
@@ -7655,7 +6125,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="B28" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -8766,7 +7236,7 @@
     </row>
     <row r="53" spans="1:26">
       <c r="B53" t="s">
-        <v>603</v>
+        <v>93</v>
       </c>
       <c r="D53" s="61" t="n"/>
       <c r="E53" s="61" t="n"/>
@@ -8781,7 +7251,7 @@
     </row>
     <row r="54" spans="1:26">
       <c r="B54" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>4</v>
@@ -9890,7 +8360,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="B79" t="s">
-        <v>604</v>
+        <v>94</v>
       </c>
       <c r="D79" s="61" t="n"/>
       <c r="E79" s="61" t="n"/>
@@ -9905,7 +8375,7 @@
     </row>
     <row r="80" spans="1:26">
       <c r="B80" s="46" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>4</v>
@@ -10733,7 +9203,7 @@
         <v/>
       </c>
       <c r="Z97" t="s">
-        <v>605</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:26">
@@ -11043,12 +9513,12 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" t="s">
-        <v>601</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -11885,7 +10355,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="B15" t="s">
-        <v>602</v>
+        <v>92</v>
       </c>
       <c r="D15" s="61" t="n"/>
       <c r="E15" s="61" t="n"/>
@@ -11900,7 +10370,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="B16" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -12730,7 +11200,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="B29" t="s">
-        <v>603</v>
+        <v>93</v>
       </c>
       <c r="D29" s="61" t="n"/>
       <c r="E29" s="61" t="n"/>
@@ -12745,7 +11215,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="B30" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -13584,7 +12054,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="B43" t="s">
-        <v>604</v>
+        <v>94</v>
       </c>
       <c r="D43" s="61" t="n"/>
       <c r="E43" s="61" t="n"/>
@@ -13599,7 +12069,7 @@
     </row>
     <row r="44" spans="1:25">
       <c r="B44" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -14479,12 +12949,12 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" t="s">
-        <v>601</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -14926,7 +13396,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="B9" t="s">
-        <v>602</v>
+        <v>92</v>
       </c>
       <c r="D9" s="61" t="n"/>
       <c r="E9" s="61" t="n"/>
@@ -14941,7 +13411,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="B10" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -15383,7 +13853,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="B17" t="s">
-        <v>603</v>
+        <v>93</v>
       </c>
       <c r="D17" s="61" t="n"/>
       <c r="E17" s="61" t="n"/>
@@ -15398,7 +13868,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="B18" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -15840,7 +14310,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="B25" t="s">
-        <v>604</v>
+        <v>94</v>
       </c>
       <c r="D25" s="61" t="n"/>
       <c r="E25" s="61" t="n"/>
@@ -15855,7 +14325,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="B26" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -16318,12 +14788,12 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" t="s">
-        <v>601</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -16563,7 +15033,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
-        <v>602</v>
+        <v>92</v>
       </c>
       <c r="D6" s="61" t="n"/>
       <c r="E6" s="61" t="n"/>
@@ -16578,7 +15048,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="B7" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -16818,7 +15288,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="B11" t="s">
-        <v>603</v>
+        <v>93</v>
       </c>
       <c r="D11" s="61" t="n"/>
       <c r="E11" s="61" t="n"/>
@@ -16833,7 +15303,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="B12" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -17073,7 +15543,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="B16" t="s">
-        <v>604</v>
+        <v>94</v>
       </c>
       <c r="D16" s="61" t="n"/>
       <c r="E16" s="61" t="n"/>
@@ -17088,7 +15558,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="B17" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -17337,12 +15807,12 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" t="s">
-        <v>606</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="B2" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -17582,7 +16052,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="B6" t="s">
-        <v>607</v>
+        <v>97</v>
       </c>
       <c r="D6" s="61" t="n"/>
       <c r="E6" s="61" t="n"/>
@@ -17597,7 +16067,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="B7" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -17865,7 +16335,7 @@
   <sheetData>
     <row r="4" spans="1:25">
       <c r="B4" s="3" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -18105,7 +16575,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="L9" s="20" t="s">
-        <v>608</v>
+        <v>98</v>
       </c>
       <c r="M9">
         <f>IF(Y5&gt;Y6,C5,C6)</f>
@@ -18138,43 +16608,43 @@
   <sheetData>
     <row r="2" spans="1:15">
       <c r="B2" t="s">
-        <v>609</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>610</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>611</v>
+        <v>101</v>
       </c>
       <c r="G2" t="n">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>612</v>
+        <v>102</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>613</v>
+        <v>103</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>614</v>
+        <v>104</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>615</v>
+        <v>105</v>
       </c>
       <c r="O2">
         <f>SUM(C2+E2+G2+I2+K2+M2)</f>
@@ -18183,43 +16653,43 @@
     </row>
     <row r="3" spans="1:15">
       <c r="B3" t="s">
-        <v>616</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>616</v>
+        <v>106</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>616</v>
+        <v>106</v>
       </c>
       <c r="G3" t="n">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>616</v>
+        <v>106</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>616</v>
+        <v>106</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>616</v>
+        <v>106</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>616</v>
+        <v>106</v>
       </c>
       <c r="O3">
         <f>SUM(C3+E3+G3+I3+K3+M3)</f>
@@ -18228,49 +16698,49 @@
     </row>
     <row r="4" spans="1:15">
       <c r="B4" t="s">
-        <v>617</v>
+        <v>107</v>
       </c>
       <c r="C4" s="41">
         <f>C2/C3</f>
         <v/>
       </c>
       <c r="D4" t="s">
-        <v>617</v>
+        <v>107</v>
       </c>
       <c r="E4" s="41">
         <f>E2/E3</f>
         <v/>
       </c>
       <c r="F4" t="s">
-        <v>617</v>
+        <v>107</v>
       </c>
       <c r="G4" s="41">
         <f>G2/G3</f>
         <v/>
       </c>
       <c r="H4" t="s">
-        <v>617</v>
+        <v>107</v>
       </c>
       <c r="I4" s="41">
         <f>I2/I3</f>
         <v/>
       </c>
       <c r="J4" t="s">
-        <v>617</v>
+        <v>107</v>
       </c>
       <c r="K4" s="41">
         <f>K2/K3</f>
         <v/>
       </c>
       <c r="L4" t="s">
-        <v>617</v>
+        <v>107</v>
       </c>
       <c r="M4" s="41">
         <f>M2/M3</f>
         <v/>
       </c>
       <c r="N4" t="s">
-        <v>617</v>
+        <v>107</v>
       </c>
       <c r="O4" s="81">
         <f>O2/O3</f>
